--- a/teaching/traditional_assets/database/data/bahrain/bahrain_retail_special_lines.xlsx
+++ b/teaching/traditional_assets/database/data/bahrain/bahrain_retail_special_lines.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="bax_dutyf" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,46 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06</v>
+        <v>-0.0487</v>
       </c>
       <c r="E2">
-        <v>0.00058</v>
+        <v>-0.208</v>
       </c>
       <c r="G2">
-        <v>0.1883910386965377</v>
+        <v>0.3350427350427351</v>
       </c>
       <c r="H2">
-        <v>0.1883910386965377</v>
+        <v>0.3350427350427351</v>
       </c>
       <c r="I2">
-        <v>0.164969450101833</v>
+        <v>0.09692307692307692</v>
       </c>
       <c r="J2">
-        <v>0.164969450101833</v>
+        <v>0.09692307692307692</v>
       </c>
       <c r="K2">
-        <v>18.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L2">
-        <v>0.1914460285132383</v>
+        <v>0.1401709401709402</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>15.1</v>
       </c>
       <c r="N2">
-        <v>0.06538196834136269</v>
+        <v>0.06428267347807577</v>
       </c>
       <c r="O2">
-        <v>1.01063829787234</v>
+        <v>1.841463414634146</v>
       </c>
       <c r="P2">
-        <v>19</v>
+        <v>15.1</v>
       </c>
       <c r="Q2">
-        <v>0.06538196834136269</v>
+        <v>0.06428267347807577</v>
       </c>
       <c r="R2">
-        <v>1.01063829787234</v>
+        <v>1.841463414634146</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +641,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>11.1</v>
+        <v>3.38</v>
       </c>
       <c r="V2">
-        <v>0.03819683413626978</v>
+        <v>0.01438910174542358</v>
       </c>
       <c r="W2">
-        <v>0.14050822122571</v>
+        <v>0.06016140865737343</v>
       </c>
       <c r="X2">
-        <v>0.09875223340042701</v>
+        <v>0.1067487725430685</v>
       </c>
       <c r="Y2">
-        <v>0.04175598782528299</v>
+        <v>-0.04658736388569504</v>
       </c>
       <c r="Z2">
-        <v>0.9117920148560816</v>
+        <v>0.4672523961661341</v>
       </c>
       <c r="AA2">
-        <v>0.1504178272980501</v>
+        <v>0.04528753993610223</v>
       </c>
       <c r="AB2">
-        <v>0.09875223340042701</v>
+        <v>0.1063146393110963</v>
       </c>
       <c r="AC2">
-        <v>0.05166559389762311</v>
+        <v>-0.06102709937499404</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AG2">
-        <v>-11.1</v>
+        <v>-0.73</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.01115554620079983</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.01997738409347908</v>
       </c>
       <c r="AJ2">
-        <v>-0.03971377459749553</v>
+        <v>-0.003117393346713925</v>
       </c>
       <c r="AK2">
-        <v>-0.08865814696485622</v>
+        <v>-0.00564709522704417</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AM2">
-        <v>-3.63</v>
+        <v>-2.912</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.3680555555555555</v>
+      </c>
+      <c r="AO2">
+        <v>708.75</v>
       </c>
       <c r="AP2">
-        <v>-0.5904255319148936</v>
+        <v>-0.1013888888888889</v>
       </c>
       <c r="AQ2">
-        <v>-4.462809917355372</v>
+        <v>-1.947115384615385</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +727,8839 @@
         </is>
       </c>
       <c r="D3">
+        <v>-0.0487</v>
+      </c>
+      <c r="E3">
+        <v>-0.208</v>
+      </c>
+      <c r="G3">
+        <v>0.3350427350427351</v>
+      </c>
+      <c r="H3">
+        <v>0.3350427350427351</v>
+      </c>
+      <c r="I3">
+        <v>0.09692307692307692</v>
+      </c>
+      <c r="J3">
+        <v>0.09692307692307692</v>
+      </c>
+      <c r="K3">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.1401709401709402</v>
+      </c>
+      <c r="M3">
+        <v>15.1</v>
+      </c>
+      <c r="N3">
+        <v>0.06428267347807577</v>
+      </c>
+      <c r="O3">
+        <v>1.841463414634146</v>
+      </c>
+      <c r="P3">
+        <v>15.1</v>
+      </c>
+      <c r="Q3">
+        <v>0.06428267347807577</v>
+      </c>
+      <c r="R3">
+        <v>1.841463414634146</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3.38</v>
+      </c>
+      <c r="V3">
+        <v>0.01438910174542358</v>
+      </c>
+      <c r="W3">
+        <v>0.06016140865737343</v>
+      </c>
+      <c r="X3">
+        <v>0.1067487725430685</v>
+      </c>
+      <c r="Y3">
+        <v>-0.04658736388569504</v>
+      </c>
+      <c r="Z3">
+        <v>0.4672523961661341</v>
+      </c>
+      <c r="AA3">
+        <v>0.04528753993610223</v>
+      </c>
+      <c r="AB3">
+        <v>0.1063146393110963</v>
+      </c>
+      <c r="AC3">
+        <v>-0.06102709937499404</v>
+      </c>
+      <c r="AD3">
+        <v>2.65</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>2.65</v>
+      </c>
+      <c r="AG3">
+        <v>-0.73</v>
+      </c>
+      <c r="AH3">
+        <v>0.01115554620079983</v>
+      </c>
+      <c r="AI3">
+        <v>0.01997738409347908</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.003117393346713925</v>
+      </c>
+      <c r="AK3">
+        <v>-0.00564709522704417</v>
+      </c>
+      <c r="AL3">
+        <v>0.008</v>
+      </c>
+      <c r="AM3">
+        <v>-2.912</v>
+      </c>
+      <c r="AN3">
+        <v>0.3680555555555555</v>
+      </c>
+      <c r="AO3">
+        <v>708.75</v>
+      </c>
+      <c r="AP3">
+        <v>-0.1013888888888889</v>
+      </c>
+      <c r="AQ3">
+        <v>-1.947115384615385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bahrain Duty Free Shop Complex BSC (BAX:DUTYF)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BAX:DUTYF</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retail (Special Lines)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0111555462007998</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>234.9</v>
+      </c>
+      <c r="H2">
+        <v>239.136770720375</v>
+      </c>
+      <c r="I2">
+        <v>234.17</v>
+      </c>
+      <c r="J2">
+        <v>235.756770720375</v>
+      </c>
+      <c r="K2">
+        <v>2.65</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.106314639311096</v>
+      </c>
+      <c r="N2">
+        <v>0.105661678258753</v>
+      </c>
+      <c r="O2">
+        <v>0.0678324143336359</v>
+      </c>
+      <c r="P2">
+        <v>0.0162</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.106748772543068</v>
+      </c>
+      <c r="T2">
+        <v>0.105661678258753</v>
+      </c>
+      <c r="U2">
+        <v>0.969664657766495</v>
+      </c>
+      <c r="V2">
+        <v>0.958847518877498</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>234.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.10049739542692</v>
+      </c>
+      <c r="AC2">
+        <v>0.06783241433363595</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>7.2</v>
+      </c>
+      <c r="AH2">
+        <v>1.53</v>
+      </c>
+      <c r="AI2">
+        <v>1.538</v>
+      </c>
+      <c r="AJ2">
+        <v>2.65</v>
+      </c>
+      <c r="AK2">
+        <v>2.65</v>
+      </c>
+      <c r="AL2">
+        <v>0.008</v>
+      </c>
+      <c r="AM2">
+        <v>2.65</v>
+      </c>
+      <c r="AN2">
+        <v>3.38</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.105661678258753</v>
+      </c>
+      <c r="C2">
+        <v>239.1367707203754</v>
+      </c>
+      <c r="D2">
+        <v>235.7567707203754</v>
+      </c>
+      <c r="E2">
+        <v>-2.65</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>3.38</v>
+      </c>
+      <c r="H2">
+        <v>234.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7.2</v>
+      </c>
+      <c r="K2">
+        <v>1.53</v>
+      </c>
+      <c r="L2">
+        <v>5.67</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>5.67</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>5.67</v>
+      </c>
+      <c r="Q2">
+        <v>7.2</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.105661678258753</v>
+      </c>
+      <c r="T2">
+        <v>0.9588475188774981</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.0162</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.105730678258753</v>
+      </c>
+      <c r="C3">
+        <v>236.5925773390423</v>
+      </c>
+      <c r="D3">
+        <v>235.5880773390423</v>
+      </c>
+      <c r="E3">
+        <v>-0.2744999999999997</v>
+      </c>
+      <c r="F3">
+        <v>2.3755</v>
+      </c>
+      <c r="G3">
+        <v>3.38</v>
+      </c>
+      <c r="H3">
+        <v>234.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>7.2</v>
+      </c>
+      <c r="K3">
+        <v>1.53</v>
+      </c>
+      <c r="L3">
+        <v>5.67</v>
+      </c>
+      <c r="M3">
+        <v>0.0384831</v>
+      </c>
+      <c r="N3">
+        <v>5.6315169</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>5.6315169</v>
+      </c>
+      <c r="Q3">
+        <v>7.161516900000001</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.106635028544195</v>
+      </c>
+      <c r="T3">
+        <v>0.9685328473510082</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.0162</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>147.3374026520733</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.105799678258753</v>
+      </c>
+      <c r="C4">
+        <v>234.0486251987895</v>
+      </c>
+      <c r="D4">
+        <v>235.4196251987895</v>
+      </c>
+      <c r="E4">
+        <v>2.101</v>
+      </c>
+      <c r="F4">
+        <v>4.751</v>
+      </c>
+      <c r="G4">
+        <v>3.38</v>
+      </c>
+      <c r="H4">
+        <v>234.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>7.2</v>
+      </c>
+      <c r="K4">
+        <v>1.53</v>
+      </c>
+      <c r="L4">
+        <v>5.67</v>
+      </c>
+      <c r="M4">
+        <v>0.0769662</v>
+      </c>
+      <c r="N4">
+        <v>5.5930338</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>5.5930338</v>
+      </c>
+      <c r="Q4">
+        <v>7.1230338</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1076282431211766</v>
+      </c>
+      <c r="T4">
+        <v>0.9784158355892838</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.0162</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>73.66870132603663</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.105868678258753</v>
+      </c>
+      <c r="C5">
+        <v>231.5049137825041</v>
+      </c>
+      <c r="D5">
+        <v>235.2514137825041</v>
+      </c>
+      <c r="E5">
+        <v>4.4765</v>
+      </c>
+      <c r="F5">
+        <v>7.1265</v>
+      </c>
+      <c r="G5">
+        <v>3.38</v>
+      </c>
+      <c r="H5">
+        <v>234.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7.2</v>
+      </c>
+      <c r="K5">
+        <v>1.53</v>
+      </c>
+      <c r="L5">
+        <v>5.67</v>
+      </c>
+      <c r="M5">
+        <v>0.1154493</v>
+      </c>
+      <c r="N5">
+        <v>5.5545507</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5.5545507</v>
+      </c>
+      <c r="Q5">
+        <v>7.0845507</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.1086419363492299</v>
+      </c>
+      <c r="T5">
+        <v>0.9885025967809258</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.0162</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>49.11246755069109</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.105937678258753</v>
+      </c>
+      <c r="C6">
+        <v>228.96144257455</v>
+      </c>
+      <c r="D6">
+        <v>235.08344257455</v>
+      </c>
+      <c r="E6">
+        <v>6.852</v>
+      </c>
+      <c r="F6">
+        <v>9.502000000000001</v>
+      </c>
+      <c r="G6">
+        <v>3.38</v>
+      </c>
+      <c r="H6">
+        <v>234.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7.2</v>
+      </c>
+      <c r="K6">
+        <v>1.53</v>
+      </c>
+      <c r="L6">
+        <v>5.67</v>
+      </c>
+      <c r="M6">
+        <v>0.1539324</v>
+      </c>
+      <c r="N6">
+        <v>5.5160676</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>5.5160676</v>
+      </c>
+      <c r="Q6">
+        <v>7.0460676</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1096767481862011</v>
+      </c>
+      <c r="T6">
+        <v>0.9987994988307273</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.0162</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>36.83435066301831</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.106006678258753</v>
+      </c>
+      <c r="C7">
+        <v>226.4182110607632</v>
+      </c>
+      <c r="D7">
+        <v>234.9157110607632</v>
+      </c>
+      <c r="E7">
+        <v>9.227500000000001</v>
+      </c>
+      <c r="F7">
+        <v>11.8775</v>
+      </c>
+      <c r="G7">
+        <v>3.38</v>
+      </c>
+      <c r="H7">
+        <v>234.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7.2</v>
+      </c>
+      <c r="K7">
+        <v>1.53</v>
+      </c>
+      <c r="L7">
+        <v>5.67</v>
+      </c>
+      <c r="M7">
+        <v>0.1924155</v>
+      </c>
+      <c r="N7">
+        <v>5.4775845</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>5.4775845</v>
+      </c>
+      <c r="Q7">
+        <v>7.0075845</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1107333455355295</v>
+      </c>
+      <c r="T7">
+        <v>1.009313177765787</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.0162</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>29.46748053041465</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>0.06</v>
       </c>
-      <c r="E3">
-        <v>0.00058</v>
-      </c>
-      <c r="G3">
-        <v>0.1883910386965377</v>
-      </c>
-      <c r="H3">
-        <v>0.1883910386965377</v>
-      </c>
-      <c r="I3">
-        <v>0.164969450101833</v>
-      </c>
-      <c r="J3">
-        <v>0.164969450101833</v>
-      </c>
-      <c r="K3">
-        <v>18.8</v>
-      </c>
-      <c r="L3">
-        <v>0.1914460285132383</v>
-      </c>
-      <c r="M3">
-        <v>19</v>
-      </c>
-      <c r="N3">
-        <v>0.06538196834136269</v>
-      </c>
-      <c r="O3">
-        <v>1.01063829787234</v>
-      </c>
-      <c r="P3">
-        <v>19</v>
-      </c>
-      <c r="Q3">
-        <v>0.06538196834136269</v>
-      </c>
-      <c r="R3">
-        <v>1.01063829787234</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>11.1</v>
-      </c>
-      <c r="V3">
-        <v>0.03819683413626978</v>
-      </c>
-      <c r="W3">
-        <v>0.14050822122571</v>
-      </c>
-      <c r="X3">
-        <v>0.09875223340042701</v>
-      </c>
-      <c r="Y3">
-        <v>0.04175598782528299</v>
-      </c>
-      <c r="Z3">
-        <v>0.9117920148560816</v>
-      </c>
-      <c r="AA3">
-        <v>0.1504178272980501</v>
-      </c>
-      <c r="AB3">
-        <v>0.09875223340042701</v>
-      </c>
-      <c r="AC3">
-        <v>0.05166559389762311</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>-11.1</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.03971377459749553</v>
-      </c>
-      <c r="AK3">
-        <v>-0.08865814696485622</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>-3.63</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>-0.5904255319148936</v>
-      </c>
-      <c r="AQ3">
-        <v>-4.462809917355372</v>
+      <c r="B8">
+        <v>0.106075678258753</v>
+      </c>
+      <c r="C8">
+        <v>223.8752187284454</v>
+      </c>
+      <c r="D8">
+        <v>234.7482187284454</v>
+      </c>
+      <c r="E8">
+        <v>11.603</v>
+      </c>
+      <c r="F8">
+        <v>14.253</v>
+      </c>
+      <c r="G8">
+        <v>3.38</v>
+      </c>
+      <c r="H8">
+        <v>234.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7.2</v>
+      </c>
+      <c r="K8">
+        <v>1.53</v>
+      </c>
+      <c r="L8">
+        <v>5.67</v>
+      </c>
+      <c r="M8">
+        <v>0.2308986</v>
+      </c>
+      <c r="N8">
+        <v>5.4391014</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>5.4391014</v>
+      </c>
+      <c r="Q8">
+        <v>6.9691014</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1118124236795245</v>
+      </c>
+      <c r="T8">
+        <v>1.020050551997338</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.0162</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>24.55623377534554</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.106144678258753</v>
+      </c>
+      <c r="C9">
+        <v>221.33246506636</v>
+      </c>
+      <c r="D9">
+        <v>234.58096506636</v>
+      </c>
+      <c r="E9">
+        <v>13.9785</v>
+      </c>
+      <c r="F9">
+        <v>16.6285</v>
+      </c>
+      <c r="G9">
+        <v>3.38</v>
+      </c>
+      <c r="H9">
+        <v>234.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.2</v>
+      </c>
+      <c r="K9">
+        <v>1.53</v>
+      </c>
+      <c r="L9">
+        <v>5.67</v>
+      </c>
+      <c r="M9">
+        <v>0.2693817</v>
+      </c>
+      <c r="N9">
+        <v>5.4006183</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>5.4006183</v>
+      </c>
+      <c r="Q9">
+        <v>6.9306183</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1129147078051108</v>
+      </c>
+      <c r="T9">
+        <v>1.031018837502686</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.0162</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>21.04820037886761</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.106213678258753</v>
+      </c>
+      <c r="C10">
+        <v>218.789949564726</v>
+      </c>
+      <c r="D10">
+        <v>234.413949564726</v>
+      </c>
+      <c r="E10">
+        <v>16.354</v>
+      </c>
+      <c r="F10">
+        <v>19.004</v>
+      </c>
+      <c r="G10">
+        <v>3.38</v>
+      </c>
+      <c r="H10">
+        <v>234.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7.2</v>
+      </c>
+      <c r="K10">
+        <v>1.53</v>
+      </c>
+      <c r="L10">
+        <v>5.67</v>
+      </c>
+      <c r="M10">
+        <v>0.3078648</v>
+      </c>
+      <c r="N10">
+        <v>5.3621352</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>5.3621352</v>
+      </c>
+      <c r="Q10">
+        <v>6.8921352</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1140409546290794</v>
+      </c>
+      <c r="T10">
+        <v>1.04222556399728</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.0162</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>18.41717533150916</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1062826782587531</v>
+      </c>
+      <c r="C11">
+        <v>216.2476717152134</v>
+      </c>
+      <c r="D11">
+        <v>234.2471717152134</v>
+      </c>
+      <c r="E11">
+        <v>18.7295</v>
+      </c>
+      <c r="F11">
+        <v>21.3795</v>
+      </c>
+      <c r="G11">
+        <v>3.38</v>
+      </c>
+      <c r="H11">
+        <v>234.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7.2</v>
+      </c>
+      <c r="K11">
+        <v>1.53</v>
+      </c>
+      <c r="L11">
+        <v>5.67</v>
+      </c>
+      <c r="M11">
+        <v>0.3463479</v>
+      </c>
+      <c r="N11">
+        <v>5.3236521</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>5.3236521</v>
+      </c>
+      <c r="Q11">
+        <v>6.853652100000001</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1151919541304978</v>
+      </c>
+      <c r="T11">
+        <v>1.053678592173075</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0.0162</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>16.37082251689703</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.106351678258753</v>
+      </c>
+      <c r="C12">
+        <v>213.7056310109377</v>
+      </c>
+      <c r="D12">
+        <v>234.0806310109377</v>
+      </c>
+      <c r="E12">
+        <v>21.105</v>
+      </c>
+      <c r="F12">
+        <v>23.755</v>
+      </c>
+      <c r="G12">
+        <v>3.38</v>
+      </c>
+      <c r="H12">
+        <v>234.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7.2</v>
+      </c>
+      <c r="K12">
+        <v>1.53</v>
+      </c>
+      <c r="L12">
+        <v>5.67</v>
+      </c>
+      <c r="M12">
+        <v>0.384831</v>
+      </c>
+      <c r="N12">
+        <v>5.285169</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>5.285169</v>
+      </c>
+      <c r="Q12">
+        <v>6.815169</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1163685313986145</v>
+      </c>
+      <c r="T12">
+        <v>1.065386132086109</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0.0162</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>14.73374026520732</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.106596678258753</v>
+      </c>
+      <c r="C13">
+        <v>210.7406992274069</v>
+      </c>
+      <c r="D13">
+        <v>233.4911992274069</v>
+      </c>
+      <c r="E13">
+        <v>23.4805</v>
+      </c>
+      <c r="F13">
+        <v>26.1305</v>
+      </c>
+      <c r="G13">
+        <v>3.38</v>
+      </c>
+      <c r="H13">
+        <v>234.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7.2</v>
+      </c>
+      <c r="K13">
+        <v>1.53</v>
+      </c>
+      <c r="L13">
+        <v>5.67</v>
+      </c>
+      <c r="M13">
+        <v>0.4651229</v>
+      </c>
+      <c r="N13">
+        <v>5.2048771</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>5.2048771</v>
+      </c>
+      <c r="Q13">
+        <v>6.7348771</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1175715486053405</v>
+      </c>
+      <c r="T13">
+        <v>1.077356762783706</v>
+      </c>
+      <c r="U13">
+        <v>0.0178</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.0178</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>12.19032647070269</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.106681678258753</v>
+      </c>
+      <c r="C14">
+        <v>208.1613954699733</v>
+      </c>
+      <c r="D14">
+        <v>233.2873954699733</v>
+      </c>
+      <c r="E14">
+        <v>25.856</v>
+      </c>
+      <c r="F14">
+        <v>28.506</v>
+      </c>
+      <c r="G14">
+        <v>3.38</v>
+      </c>
+      <c r="H14">
+        <v>234.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7.2</v>
+      </c>
+      <c r="K14">
+        <v>1.53</v>
+      </c>
+      <c r="L14">
+        <v>5.67</v>
+      </c>
+      <c r="M14">
+        <v>0.5074068</v>
+      </c>
+      <c r="N14">
+        <v>5.1625932</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>5.1625932</v>
+      </c>
+      <c r="Q14">
+        <v>6.6925932</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1188019071122193</v>
+      </c>
+      <c r="T14">
+        <v>1.089599453269884</v>
+      </c>
+      <c r="U14">
+        <v>0.0178</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.0178</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>11.17446593147746</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.107052678258753</v>
+      </c>
+      <c r="C15">
+        <v>204.9005015834726</v>
+      </c>
+      <c r="D15">
+        <v>232.4020015834727</v>
+      </c>
+      <c r="E15">
+        <v>28.2315</v>
+      </c>
+      <c r="F15">
+        <v>30.8815</v>
+      </c>
+      <c r="G15">
+        <v>3.38</v>
+      </c>
+      <c r="H15">
+        <v>234.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7.2</v>
+      </c>
+      <c r="K15">
+        <v>1.53</v>
+      </c>
+      <c r="L15">
+        <v>5.67</v>
+      </c>
+      <c r="M15">
+        <v>0.61763</v>
+      </c>
+      <c r="N15">
+        <v>5.05237</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>5.05237</v>
+      </c>
+      <c r="Q15">
+        <v>6.58237</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1200605497227046</v>
+      </c>
+      <c r="T15">
+        <v>1.102123584916664</v>
+      </c>
+      <c r="U15">
+        <v>0.02</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0.02</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>9.180253549859948</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.107159678258753</v>
+      </c>
+      <c r="C16">
+        <v>202.2708926939698</v>
+      </c>
+      <c r="D16">
+        <v>232.1478926939699</v>
+      </c>
+      <c r="E16">
+        <v>30.60700000000001</v>
+      </c>
+      <c r="F16">
+        <v>33.25700000000001</v>
+      </c>
+      <c r="G16">
+        <v>3.38</v>
+      </c>
+      <c r="H16">
+        <v>234.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7.2</v>
+      </c>
+      <c r="K16">
+        <v>1.53</v>
+      </c>
+      <c r="L16">
+        <v>5.67</v>
+      </c>
+      <c r="M16">
+        <v>0.66514</v>
+      </c>
+      <c r="N16">
+        <v>5.00486</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>5.00486</v>
+      </c>
+      <c r="Q16">
+        <v>6.53486</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1213484630915733</v>
+      </c>
+      <c r="T16">
+        <v>1.114938975438951</v>
+      </c>
+      <c r="U16">
+        <v>0.02</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.02</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>8.524521153441381</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.107266678258753</v>
+      </c>
+      <c r="C17">
+        <v>199.6418388840444</v>
+      </c>
+      <c r="D17">
+        <v>231.8943388840444</v>
+      </c>
+      <c r="E17">
+        <v>32.9825</v>
+      </c>
+      <c r="F17">
+        <v>35.6325</v>
+      </c>
+      <c r="G17">
+        <v>3.38</v>
+      </c>
+      <c r="H17">
+        <v>234.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7.2</v>
+      </c>
+      <c r="K17">
+        <v>1.53</v>
+      </c>
+      <c r="L17">
+        <v>5.67</v>
+      </c>
+      <c r="M17">
+        <v>0.7126499999999999</v>
+      </c>
+      <c r="N17">
+        <v>4.95735</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>4.95735</v>
+      </c>
+      <c r="Q17">
+        <v>6.48735</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1226666803044153</v>
+      </c>
+      <c r="T17">
+        <v>1.128055904561762</v>
+      </c>
+      <c r="U17">
+        <v>0.02</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0.02</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>7.956219743211956</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.107549678258753</v>
+      </c>
+      <c r="C18">
+        <v>196.5983865907925</v>
+      </c>
+      <c r="D18">
+        <v>231.2263865907925</v>
+      </c>
+      <c r="E18">
+        <v>35.358</v>
+      </c>
+      <c r="F18">
+        <v>38.008</v>
+      </c>
+      <c r="G18">
+        <v>3.38</v>
+      </c>
+      <c r="H18">
+        <v>234.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.2</v>
+      </c>
+      <c r="K18">
+        <v>1.53</v>
+      </c>
+      <c r="L18">
+        <v>5.67</v>
+      </c>
+      <c r="M18">
+        <v>0.8019688</v>
+      </c>
+      <c r="N18">
+        <v>4.8680312</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>4.8680312</v>
+      </c>
+      <c r="Q18">
+        <v>6.3980312</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1240162836413727</v>
+      </c>
+      <c r="T18">
+        <v>1.141485141520831</v>
+      </c>
+      <c r="U18">
+        <v>0.0211</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0.0211</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>7.070100482712045</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.107667678258753</v>
+      </c>
+      <c r="C19">
+        <v>193.9455118056935</v>
+      </c>
+      <c r="D19">
+        <v>230.9490118056935</v>
+      </c>
+      <c r="E19">
+        <v>37.73350000000001</v>
+      </c>
+      <c r="F19">
+        <v>40.38350000000001</v>
+      </c>
+      <c r="G19">
+        <v>3.38</v>
+      </c>
+      <c r="H19">
+        <v>234.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7.2</v>
+      </c>
+      <c r="K19">
+        <v>1.53</v>
+      </c>
+      <c r="L19">
+        <v>5.67</v>
+      </c>
+      <c r="M19">
+        <v>0.8520918500000001</v>
+      </c>
+      <c r="N19">
+        <v>4.81790815</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>4.81790815</v>
+      </c>
+      <c r="Q19">
+        <v>6.34790815</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1253984075406663</v>
+      </c>
+      <c r="T19">
+        <v>1.155237974551203</v>
+      </c>
+      <c r="U19">
+        <v>0.0211</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.0211</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>6.654212219023101</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.108055678258753</v>
+      </c>
+      <c r="C20">
+        <v>190.6626390028272</v>
+      </c>
+      <c r="D20">
+        <v>230.0416390028272</v>
+      </c>
+      <c r="E20">
+        <v>40.109</v>
+      </c>
+      <c r="F20">
+        <v>42.759</v>
+      </c>
+      <c r="G20">
+        <v>3.38</v>
+      </c>
+      <c r="H20">
+        <v>234.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7.2</v>
+      </c>
+      <c r="K20">
+        <v>1.53</v>
+      </c>
+      <c r="L20">
+        <v>5.67</v>
+      </c>
+      <c r="M20">
+        <v>0.9663533999999999</v>
+      </c>
+      <c r="N20">
+        <v>4.7036466</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>4.7036466</v>
+      </c>
+      <c r="Q20">
+        <v>6.2336466</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1268142417789671</v>
+      </c>
+      <c r="T20">
+        <v>1.169326242533534</v>
+      </c>
+      <c r="U20">
+        <v>0.0226</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.0226</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>5.867418689684333</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.108188678258753</v>
+      </c>
+      <c r="C21">
+        <v>187.9777452630573</v>
+      </c>
+      <c r="D21">
+        <v>229.7322452630573</v>
+      </c>
+      <c r="E21">
+        <v>42.4845</v>
+      </c>
+      <c r="F21">
+        <v>45.1345</v>
+      </c>
+      <c r="G21">
+        <v>3.38</v>
+      </c>
+      <c r="H21">
+        <v>234.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.2</v>
+      </c>
+      <c r="K21">
+        <v>1.53</v>
+      </c>
+      <c r="L21">
+        <v>5.67</v>
+      </c>
+      <c r="M21">
+        <v>1.0200397</v>
+      </c>
+      <c r="N21">
+        <v>4.6499603</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>4.6499603</v>
+      </c>
+      <c r="Q21">
+        <v>6.1799603</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1282650348873494</v>
+      </c>
+      <c r="T21">
+        <v>1.183762368984566</v>
+      </c>
+      <c r="U21">
+        <v>0.0226</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.0226</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>5.558607179700947</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.108321678258753</v>
+      </c>
+      <c r="C22">
+        <v>185.2936826416469</v>
+      </c>
+      <c r="D22">
+        <v>229.4236826416468</v>
+      </c>
+      <c r="E22">
+        <v>44.86000000000001</v>
+      </c>
+      <c r="F22">
+        <v>47.51000000000001</v>
+      </c>
+      <c r="G22">
+        <v>3.38</v>
+      </c>
+      <c r="H22">
+        <v>234.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7.2</v>
+      </c>
+      <c r="K22">
+        <v>1.53</v>
+      </c>
+      <c r="L22">
+        <v>5.67</v>
+      </c>
+      <c r="M22">
+        <v>1.073726</v>
+      </c>
+      <c r="N22">
+        <v>4.596274</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>4.596274</v>
+      </c>
+      <c r="Q22">
+        <v>6.126274</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1297520978234413</v>
+      </c>
+      <c r="T22">
+        <v>1.198559398596873</v>
+      </c>
+      <c r="U22">
+        <v>0.0226</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.0226</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>5.2806768207159</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.108454678258753</v>
+      </c>
+      <c r="C23">
+        <v>182.6104477941622</v>
+      </c>
+      <c r="D23">
+        <v>229.1159477941623</v>
+      </c>
+      <c r="E23">
+        <v>47.2355</v>
+      </c>
+      <c r="F23">
+        <v>49.8855</v>
+      </c>
+      <c r="G23">
+        <v>3.38</v>
+      </c>
+      <c r="H23">
+        <v>234.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.2</v>
+      </c>
+      <c r="K23">
+        <v>1.53</v>
+      </c>
+      <c r="L23">
+        <v>5.67</v>
+      </c>
+      <c r="M23">
+        <v>1.1274123</v>
+      </c>
+      <c r="N23">
+        <v>4.5425877</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>4.5425877</v>
+      </c>
+      <c r="Q23">
+        <v>6.072587700000001</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1312768079224722</v>
+      </c>
+      <c r="T23">
+        <v>1.213731036553795</v>
+      </c>
+      <c r="U23">
+        <v>0.0226</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0.0226</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>5.029216019729429</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.108587678258753</v>
+      </c>
+      <c r="C24">
+        <v>179.9280373940902</v>
+      </c>
+      <c r="D24">
+        <v>228.8090373940902</v>
+      </c>
+      <c r="E24">
+        <v>49.611</v>
+      </c>
+      <c r="F24">
+        <v>52.261</v>
+      </c>
+      <c r="G24">
+        <v>3.38</v>
+      </c>
+      <c r="H24">
+        <v>234.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.2</v>
+      </c>
+      <c r="K24">
+        <v>1.53</v>
+      </c>
+      <c r="L24">
+        <v>5.67</v>
+      </c>
+      <c r="M24">
+        <v>1.1810986</v>
+      </c>
+      <c r="N24">
+        <v>4.4889014</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>4.4889014</v>
+      </c>
+      <c r="Q24">
+        <v>6.0189014</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1328406131522475</v>
+      </c>
+      <c r="T24">
+        <v>1.229291690868587</v>
+      </c>
+      <c r="U24">
+        <v>0.0226</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0.0226</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>4.800615291559909</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.108720678258753</v>
+      </c>
+      <c r="C25">
+        <v>177.2464481327173</v>
+      </c>
+      <c r="D25">
+        <v>228.5029481327173</v>
+      </c>
+      <c r="E25">
+        <v>51.98650000000001</v>
+      </c>
+      <c r="F25">
+        <v>54.63650000000001</v>
+      </c>
+      <c r="G25">
+        <v>3.38</v>
+      </c>
+      <c r="H25">
+        <v>234.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>7.2</v>
+      </c>
+      <c r="K25">
+        <v>1.53</v>
+      </c>
+      <c r="L25">
+        <v>5.67</v>
+      </c>
+      <c r="M25">
+        <v>1.2347849</v>
+      </c>
+      <c r="N25">
+        <v>4.4352151</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>4.4352151</v>
+      </c>
+      <c r="Q25">
+        <v>5.9652151</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1344450366996793</v>
+      </c>
+      <c r="T25">
+        <v>1.245256518022725</v>
+      </c>
+      <c r="U25">
+        <v>0.0226</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0.0226</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>4.591892887579043</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.129589678258753</v>
+      </c>
+      <c r="C26">
+        <v>135.2280785730867</v>
+      </c>
+      <c r="D26">
+        <v>188.8600785730867</v>
+      </c>
+      <c r="E26">
+        <v>54.362</v>
+      </c>
+      <c r="F26">
+        <v>57.012</v>
+      </c>
+      <c r="G26">
+        <v>3.38</v>
+      </c>
+      <c r="H26">
+        <v>234.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>7.2</v>
+      </c>
+      <c r="K26">
+        <v>1.53</v>
+      </c>
+      <c r="L26">
+        <v>5.67</v>
+      </c>
+      <c r="M26">
+        <v>6.214308</v>
+      </c>
+      <c r="N26">
+        <v>-0.544308</v>
+      </c>
+      <c r="O26">
+        <v>-0</v>
+      </c>
+      <c r="P26">
+        <v>-0.544308</v>
+      </c>
+      <c r="Q26">
+        <v>0.9856920000000002</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1360916819194119</v>
+      </c>
+      <c r="T26">
+        <v>1.261641472207234</v>
+      </c>
+      <c r="U26">
+        <v>0.109</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0.109</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.9124105210105453</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.130586678258753</v>
+      </c>
+      <c r="C27">
+        <v>131.3001121271374</v>
+      </c>
+      <c r="D27">
+        <v>187.3076121271374</v>
+      </c>
+      <c r="E27">
+        <v>56.7375</v>
+      </c>
+      <c r="F27">
+        <v>59.3875</v>
+      </c>
+      <c r="G27">
+        <v>3.38</v>
+      </c>
+      <c r="H27">
+        <v>234.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>7.2</v>
+      </c>
+      <c r="K27">
+        <v>1.53</v>
+      </c>
+      <c r="L27">
+        <v>5.67</v>
+      </c>
+      <c r="M27">
+        <v>6.473237500000001</v>
+      </c>
+      <c r="N27">
+        <v>-0.8032375000000007</v>
+      </c>
+      <c r="O27">
+        <v>-0</v>
+      </c>
+      <c r="P27">
+        <v>-0.8032375000000007</v>
+      </c>
+      <c r="Q27">
+        <v>0.7267624999999995</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1377822376783374</v>
+      </c>
+      <c r="T27">
+        <v>1.278463358503331</v>
+      </c>
+      <c r="U27">
+        <v>0.109</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.109</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.8759141001701234</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.131583678258753</v>
+      </c>
+      <c r="C28">
+        <v>127.3974607366173</v>
+      </c>
+      <c r="D28">
+        <v>185.7804607366174</v>
+      </c>
+      <c r="E28">
+        <v>59.11300000000001</v>
+      </c>
+      <c r="F28">
+        <v>61.76300000000001</v>
+      </c>
+      <c r="G28">
+        <v>3.38</v>
+      </c>
+      <c r="H28">
+        <v>234.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7.2</v>
+      </c>
+      <c r="K28">
+        <v>1.53</v>
+      </c>
+      <c r="L28">
+        <v>5.67</v>
+      </c>
+      <c r="M28">
+        <v>6.732167</v>
+      </c>
+      <c r="N28">
+        <v>-1.062167000000001</v>
+      </c>
+      <c r="O28">
+        <v>-0</v>
+      </c>
+      <c r="P28">
+        <v>-1.062167000000001</v>
+      </c>
+      <c r="Q28">
+        <v>0.4678329999999997</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1395184841334501</v>
+      </c>
+      <c r="T28">
+        <v>1.295739890374997</v>
+      </c>
+      <c r="U28">
+        <v>0.109</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0.109</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.8422250963174264</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1325806782587531</v>
+      </c>
+      <c r="C29">
+        <v>123.5195102150064</v>
+      </c>
+      <c r="D29">
+        <v>184.2780102150064</v>
+      </c>
+      <c r="E29">
+        <v>61.48850000000001</v>
+      </c>
+      <c r="F29">
+        <v>64.13850000000001</v>
+      </c>
+      <c r="G29">
+        <v>3.38</v>
+      </c>
+      <c r="H29">
+        <v>234.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>7.2</v>
+      </c>
+      <c r="K29">
+        <v>1.53</v>
+      </c>
+      <c r="L29">
+        <v>5.67</v>
+      </c>
+      <c r="M29">
+        <v>6.991096500000001</v>
+      </c>
+      <c r="N29">
+        <v>-1.321096500000001</v>
+      </c>
+      <c r="O29">
+        <v>-0</v>
+      </c>
+      <c r="P29">
+        <v>-1.321096500000001</v>
+      </c>
+      <c r="Q29">
+        <v>0.208903499999999</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1413022989845932</v>
+      </c>
+      <c r="T29">
+        <v>1.313489751886984</v>
+      </c>
+      <c r="U29">
+        <v>0.109</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0.109</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.8110315742315957</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.142313678258753</v>
+      </c>
+      <c r="C30">
+        <v>107.6598490602898</v>
+      </c>
+      <c r="D30">
+        <v>170.7938490602898</v>
+      </c>
+      <c r="E30">
+        <v>63.86400000000001</v>
+      </c>
+      <c r="F30">
+        <v>66.51400000000001</v>
+      </c>
+      <c r="G30">
+        <v>3.38</v>
+      </c>
+      <c r="H30">
+        <v>234.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>7.2</v>
+      </c>
+      <c r="K30">
+        <v>1.53</v>
+      </c>
+      <c r="L30">
+        <v>5.67</v>
+      </c>
+      <c r="M30">
+        <v>9.325262800000001</v>
+      </c>
+      <c r="N30">
+        <v>-3.655262800000001</v>
+      </c>
+      <c r="O30">
+        <v>-0</v>
+      </c>
+      <c r="P30">
+        <v>-3.655262800000001</v>
+      </c>
+      <c r="Q30">
+        <v>-2.125262800000001</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1431356642482681</v>
+      </c>
+      <c r="T30">
+        <v>1.331732665107636</v>
+      </c>
+      <c r="U30">
+        <v>0.1402</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0.1402</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.6080257598745635</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.143622678258753</v>
+      </c>
+      <c r="C31">
+        <v>103.6199305769921</v>
+      </c>
+      <c r="D31">
+        <v>169.1294305769921</v>
+      </c>
+      <c r="E31">
+        <v>66.23949999999999</v>
+      </c>
+      <c r="F31">
+        <v>68.8895</v>
+      </c>
+      <c r="G31">
+        <v>3.38</v>
+      </c>
+      <c r="H31">
+        <v>234.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7.2</v>
+      </c>
+      <c r="K31">
+        <v>1.53</v>
+      </c>
+      <c r="L31">
+        <v>5.67</v>
+      </c>
+      <c r="M31">
+        <v>9.658307899999999</v>
+      </c>
+      <c r="N31">
+        <v>-3.988307899999999</v>
+      </c>
+      <c r="O31">
+        <v>-0</v>
+      </c>
+      <c r="P31">
+        <v>-3.988307899999999</v>
+      </c>
+      <c r="Q31">
+        <v>-2.458307899999999</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1450206736038775</v>
+      </c>
+      <c r="T31">
+        <v>1.350489463207744</v>
+      </c>
+      <c r="U31">
+        <v>0.1402</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0.1402</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.5870593543616476</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.144931678258753</v>
+      </c>
+      <c r="C32">
+        <v>99.61213915755748</v>
+      </c>
+      <c r="D32">
+        <v>167.4971391575575</v>
+      </c>
+      <c r="E32">
+        <v>68.61499999999999</v>
+      </c>
+      <c r="F32">
+        <v>71.265</v>
+      </c>
+      <c r="G32">
+        <v>3.38</v>
+      </c>
+      <c r="H32">
+        <v>234.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>7.2</v>
+      </c>
+      <c r="K32">
+        <v>1.53</v>
+      </c>
+      <c r="L32">
+        <v>5.67</v>
+      </c>
+      <c r="M32">
+        <v>9.991353</v>
+      </c>
+      <c r="N32">
+        <v>-4.321353</v>
+      </c>
+      <c r="O32">
+        <v>-0</v>
+      </c>
+      <c r="P32">
+        <v>-4.321353</v>
+      </c>
+      <c r="Q32">
+        <v>-2.791353</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1469595403696472</v>
+      </c>
+      <c r="T32">
+        <v>1.369782169824997</v>
+      </c>
+      <c r="U32">
+        <v>0.1402</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0.1402</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.5674907092162593</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.146240678258753</v>
+      </c>
+      <c r="C33">
+        <v>95.63555350539676</v>
+      </c>
+      <c r="D33">
+        <v>165.8960535053968</v>
+      </c>
+      <c r="E33">
+        <v>70.9905</v>
+      </c>
+      <c r="F33">
+        <v>73.6405</v>
+      </c>
+      <c r="G33">
+        <v>3.38</v>
+      </c>
+      <c r="H33">
+        <v>234.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>7.2</v>
+      </c>
+      <c r="K33">
+        <v>1.53</v>
+      </c>
+      <c r="L33">
+        <v>5.67</v>
+      </c>
+      <c r="M33">
+        <v>10.3243981</v>
+      </c>
+      <c r="N33">
+        <v>-4.6543981</v>
+      </c>
+      <c r="O33">
+        <v>-0</v>
+      </c>
+      <c r="P33">
+        <v>-4.6543981</v>
+      </c>
+      <c r="Q33">
+        <v>-3.1243981</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1489546061721058</v>
+      </c>
+      <c r="T33">
+        <v>1.389634085329707</v>
+      </c>
+      <c r="U33">
+        <v>0.1402</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.1402</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.5491845573060574</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.147549678258753</v>
+      </c>
+      <c r="C34">
+        <v>91.68928721665266</v>
+      </c>
+      <c r="D34">
+        <v>164.3252872166527</v>
+      </c>
+      <c r="E34">
+        <v>73.366</v>
+      </c>
+      <c r="F34">
+        <v>76.01600000000001</v>
+      </c>
+      <c r="G34">
+        <v>3.38</v>
+      </c>
+      <c r="H34">
+        <v>234.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>7.2</v>
+      </c>
+      <c r="K34">
+        <v>1.53</v>
+      </c>
+      <c r="L34">
+        <v>5.67</v>
+      </c>
+      <c r="M34">
+        <v>10.6574432</v>
+      </c>
+      <c r="N34">
+        <v>-4.9874432</v>
+      </c>
+      <c r="O34">
+        <v>-0</v>
+      </c>
+      <c r="P34">
+        <v>-4.9874432</v>
+      </c>
+      <c r="Q34">
+        <v>-3.457443199999999</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1510083503805192</v>
+      </c>
+      <c r="T34">
+        <v>1.410069880702203</v>
+      </c>
+      <c r="U34">
+        <v>0.1402</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0.1402</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.5320225398902432</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.148858678258753</v>
+      </c>
+      <c r="C35">
+        <v>87.77248714380599</v>
+      </c>
+      <c r="D35">
+        <v>162.783987143806</v>
+      </c>
+      <c r="E35">
+        <v>75.7415</v>
+      </c>
+      <c r="F35">
+        <v>78.39150000000001</v>
+      </c>
+      <c r="G35">
+        <v>3.38</v>
+      </c>
+      <c r="H35">
+        <v>234.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>7.2</v>
+      </c>
+      <c r="K35">
+        <v>1.53</v>
+      </c>
+      <c r="L35">
+        <v>5.67</v>
+      </c>
+      <c r="M35">
+        <v>10.9904883</v>
+      </c>
+      <c r="N35">
+        <v>-5.320488300000001</v>
+      </c>
+      <c r="O35">
+        <v>-0</v>
+      </c>
+      <c r="P35">
+        <v>-5.320488300000001</v>
+      </c>
+      <c r="Q35">
+        <v>-3.790488300000001</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1531234003861986</v>
+      </c>
+      <c r="T35">
+        <v>1.431115699817161</v>
+      </c>
+      <c r="U35">
+        <v>0.1402</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0.1402</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.5159006447420539</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.150167678258753</v>
+      </c>
+      <c r="C36">
+        <v>83.88433185051842</v>
+      </c>
+      <c r="D36">
+        <v>161.2713318505184</v>
+      </c>
+      <c r="E36">
+        <v>78.117</v>
+      </c>
+      <c r="F36">
+        <v>80.76700000000001</v>
+      </c>
+      <c r="G36">
+        <v>3.38</v>
+      </c>
+      <c r="H36">
+        <v>234.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>7.2</v>
+      </c>
+      <c r="K36">
+        <v>1.53</v>
+      </c>
+      <c r="L36">
+        <v>5.67</v>
+      </c>
+      <c r="M36">
+        <v>11.3235334</v>
+      </c>
+      <c r="N36">
+        <v>-5.653533400000001</v>
+      </c>
+      <c r="O36">
+        <v>-0</v>
+      </c>
+      <c r="P36">
+        <v>-5.653533400000001</v>
+      </c>
+      <c r="Q36">
+        <v>-4.1235334</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1553025428162925</v>
+      </c>
+      <c r="T36">
+        <v>1.452799271026512</v>
+      </c>
+      <c r="U36">
+        <v>0.1402</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0.1402</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.5007270963672876</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.166701678258753</v>
+      </c>
+      <c r="C37">
+        <v>64.56835046357239</v>
+      </c>
+      <c r="D37">
+        <v>144.3308504635724</v>
+      </c>
+      <c r="E37">
+        <v>80.49250000000001</v>
+      </c>
+      <c r="F37">
+        <v>83.14250000000001</v>
+      </c>
+      <c r="G37">
+        <v>3.38</v>
+      </c>
+      <c r="H37">
+        <v>234.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>7.2</v>
+      </c>
+      <c r="K37">
+        <v>1.53</v>
+      </c>
+      <c r="L37">
+        <v>5.67</v>
+      </c>
+      <c r="M37">
+        <v>15.27327725</v>
+      </c>
+      <c r="N37">
+        <v>-9.603277250000003</v>
+      </c>
+      <c r="O37">
+        <v>-0</v>
+      </c>
+      <c r="P37">
+        <v>-9.603277250000003</v>
+      </c>
+      <c r="Q37">
+        <v>-8.073277250000004</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.157548735782697</v>
+      </c>
+      <c r="T37">
+        <v>1.475150029042305</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0.1837</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.3712366316142136</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.168445678258753</v>
+      </c>
+      <c r="C38">
+        <v>60.61119894803946</v>
+      </c>
+      <c r="D38">
+        <v>142.7491989480395</v>
+      </c>
+      <c r="E38">
+        <v>82.86799999999999</v>
+      </c>
+      <c r="F38">
+        <v>85.518</v>
+      </c>
+      <c r="G38">
+        <v>3.38</v>
+      </c>
+      <c r="H38">
+        <v>234.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>7.2</v>
+      </c>
+      <c r="K38">
+        <v>1.53</v>
+      </c>
+      <c r="L38">
+        <v>5.67</v>
+      </c>
+      <c r="M38">
+        <v>15.7096566</v>
+      </c>
+      <c r="N38">
+        <v>-10.0396566</v>
+      </c>
+      <c r="O38">
+        <v>-0</v>
+      </c>
+      <c r="P38">
+        <v>-10.0396566</v>
+      </c>
+      <c r="Q38">
+        <v>-8.5096566</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1598651222793016</v>
+      </c>
+      <c r="T38">
+        <v>1.498199248246091</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0.1837</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.3609245029582633</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.170189678258753</v>
+      </c>
+      <c r="C39">
+        <v>56.68833677005689</v>
+      </c>
+      <c r="D39">
+        <v>141.2018367700569</v>
+      </c>
+      <c r="E39">
+        <v>85.2435</v>
+      </c>
+      <c r="F39">
+        <v>87.8935</v>
+      </c>
+      <c r="G39">
+        <v>3.38</v>
+      </c>
+      <c r="H39">
+        <v>234.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>7.2</v>
+      </c>
+      <c r="K39">
+        <v>1.53</v>
+      </c>
+      <c r="L39">
+        <v>5.67</v>
+      </c>
+      <c r="M39">
+        <v>16.14603595</v>
+      </c>
+      <c r="N39">
+        <v>-10.47603595</v>
+      </c>
+      <c r="O39">
+        <v>-0</v>
+      </c>
+      <c r="P39">
+        <v>-10.47603595</v>
+      </c>
+      <c r="Q39">
+        <v>-8.946035950000002</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1622550448551635</v>
+      </c>
+      <c r="T39">
+        <v>1.521980188694442</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0.1837</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.351169786662094</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.171933678258753</v>
+      </c>
+      <c r="C40">
+        <v>52.79866082591337</v>
+      </c>
+      <c r="D40">
+        <v>139.6876608259134</v>
+      </c>
+      <c r="E40">
+        <v>87.619</v>
+      </c>
+      <c r="F40">
+        <v>90.26900000000001</v>
+      </c>
+      <c r="G40">
+        <v>3.38</v>
+      </c>
+      <c r="H40">
+        <v>234.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>7.2</v>
+      </c>
+      <c r="K40">
+        <v>1.53</v>
+      </c>
+      <c r="L40">
+        <v>5.67</v>
+      </c>
+      <c r="M40">
+        <v>16.5824153</v>
+      </c>
+      <c r="N40">
+        <v>-10.9124153</v>
+      </c>
+      <c r="O40">
+        <v>-0</v>
+      </c>
+      <c r="P40">
+        <v>-10.9124153</v>
+      </c>
+      <c r="Q40">
+        <v>-9.382415300000002</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1647220617076662</v>
+      </c>
+      <c r="T40">
+        <v>1.546528256254029</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0.1837</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.3419284764867757</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.173677678258753</v>
+      </c>
+      <c r="C41">
+        <v>48.94111482635309</v>
+      </c>
+      <c r="D41">
+        <v>138.2056148263531</v>
+      </c>
+      <c r="E41">
+        <v>89.9945</v>
+      </c>
+      <c r="F41">
+        <v>92.64450000000001</v>
+      </c>
+      <c r="G41">
+        <v>3.38</v>
+      </c>
+      <c r="H41">
+        <v>234.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7.2</v>
+      </c>
+      <c r="K41">
+        <v>1.53</v>
+      </c>
+      <c r="L41">
+        <v>5.67</v>
+      </c>
+      <c r="M41">
+        <v>17.01879465</v>
+      </c>
+      <c r="N41">
+        <v>-11.34879465</v>
+      </c>
+      <c r="O41">
+        <v>-0</v>
+      </c>
+      <c r="P41">
+        <v>-11.34879465</v>
+      </c>
+      <c r="Q41">
+        <v>-9.818794650000001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1672699643586115</v>
+      </c>
+      <c r="T41">
+        <v>1.571881178487702</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0.1837</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.3331610796537815</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.175421678258753</v>
+      </c>
+      <c r="C42">
+        <v>45.11468683920785</v>
+      </c>
+      <c r="D42">
+        <v>136.7546868392079</v>
+      </c>
+      <c r="E42">
+        <v>92.37</v>
+      </c>
+      <c r="F42">
+        <v>95.02000000000001</v>
+      </c>
+      <c r="G42">
+        <v>3.38</v>
+      </c>
+      <c r="H42">
+        <v>234.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>7.2</v>
+      </c>
+      <c r="K42">
+        <v>1.53</v>
+      </c>
+      <c r="L42">
+        <v>5.67</v>
+      </c>
+      <c r="M42">
+        <v>17.455174</v>
+      </c>
+      <c r="N42">
+        <v>-11.785174</v>
+      </c>
+      <c r="O42">
+        <v>-0</v>
+      </c>
+      <c r="P42">
+        <v>-11.785174</v>
+      </c>
+      <c r="Q42">
+        <v>-10.255174</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1699027970979217</v>
+      </c>
+      <c r="T42">
+        <v>1.598079198129164</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0.1837</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.3248320526624369</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.177165678258753</v>
+      </c>
+      <c r="C43">
+        <v>41.31840698521087</v>
+      </c>
+      <c r="D43">
+        <v>135.3339069852109</v>
+      </c>
+      <c r="E43">
+        <v>94.74550000000001</v>
+      </c>
+      <c r="F43">
+        <v>97.39550000000001</v>
+      </c>
+      <c r="G43">
+        <v>3.38</v>
+      </c>
+      <c r="H43">
+        <v>234.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>7.2</v>
+      </c>
+      <c r="K43">
+        <v>1.53</v>
+      </c>
+      <c r="L43">
+        <v>5.67</v>
+      </c>
+      <c r="M43">
+        <v>17.89155335</v>
+      </c>
+      <c r="N43">
+        <v>-12.22155335</v>
+      </c>
+      <c r="O43">
+        <v>-0</v>
+      </c>
+      <c r="P43">
+        <v>-12.22155335</v>
+      </c>
+      <c r="Q43">
+        <v>-10.69155335</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1726248784046661</v>
+      </c>
+      <c r="T43">
+        <v>1.625165286233047</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0.1837</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.3169093196706702</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.178909678258753</v>
+      </c>
+      <c r="C44">
+        <v>37.55134527596606</v>
+      </c>
+      <c r="D44">
+        <v>133.9423452759661</v>
+      </c>
+      <c r="E44">
+        <v>97.121</v>
+      </c>
+      <c r="F44">
+        <v>99.771</v>
+      </c>
+      <c r="G44">
+        <v>3.38</v>
+      </c>
+      <c r="H44">
+        <v>234.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>7.2</v>
+      </c>
+      <c r="K44">
+        <v>1.53</v>
+      </c>
+      <c r="L44">
+        <v>5.67</v>
+      </c>
+      <c r="M44">
+        <v>18.3279327</v>
+      </c>
+      <c r="N44">
+        <v>-12.6579327</v>
+      </c>
+      <c r="O44">
+        <v>-0</v>
+      </c>
+      <c r="P44">
+        <v>-12.6579327</v>
+      </c>
+      <c r="Q44">
+        <v>-11.1279327</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1754408245840569</v>
+      </c>
+      <c r="T44">
+        <v>1.653185377374996</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0.1837</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.3093638596785113</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1806536782587531</v>
+      </c>
+      <c r="C45">
+        <v>33.8126095839458</v>
+      </c>
+      <c r="D45">
+        <v>132.5791095839458</v>
+      </c>
+      <c r="E45">
+        <v>99.4965</v>
+      </c>
+      <c r="F45">
+        <v>102.1465</v>
+      </c>
+      <c r="G45">
+        <v>3.38</v>
+      </c>
+      <c r="H45">
+        <v>234.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>7.2</v>
+      </c>
+      <c r="K45">
+        <v>1.53</v>
+      </c>
+      <c r="L45">
+        <v>5.67</v>
+      </c>
+      <c r="M45">
+        <v>18.76431205</v>
+      </c>
+      <c r="N45">
+        <v>-13.09431205</v>
+      </c>
+      <c r="O45">
+        <v>-0</v>
+      </c>
+      <c r="P45">
+        <v>-13.09431205</v>
+      </c>
+      <c r="Q45">
+        <v>-11.56431205</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1783555758925492</v>
+      </c>
+      <c r="T45">
+        <v>1.682188629609646</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0.1837</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.3021693513138948</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.182397678258753</v>
+      </c>
+      <c r="C46">
+        <v>30.10134373520482</v>
+      </c>
+      <c r="D46">
+        <v>131.2433437352048</v>
+      </c>
+      <c r="E46">
+        <v>101.872</v>
+      </c>
+      <c r="F46">
+        <v>104.522</v>
+      </c>
+      <c r="G46">
+        <v>3.38</v>
+      </c>
+      <c r="H46">
+        <v>234.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>7.2</v>
+      </c>
+      <c r="K46">
+        <v>1.53</v>
+      </c>
+      <c r="L46">
+        <v>5.67</v>
+      </c>
+      <c r="M46">
+        <v>19.2006914</v>
+      </c>
+      <c r="N46">
+        <v>-13.5306914</v>
+      </c>
+      <c r="O46">
+        <v>-0</v>
+      </c>
+      <c r="P46">
+        <v>-13.5306914</v>
+      </c>
+      <c r="Q46">
+        <v>-12.0006914</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.181374425462059</v>
+      </c>
+      <c r="T46">
+        <v>1.712227712281246</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0.1837</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.2953018660567609</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.184141678258753</v>
+      </c>
+      <c r="C47">
+        <v>26.41672571624221</v>
+      </c>
+      <c r="D47">
+        <v>129.9342257162422</v>
+      </c>
+      <c r="E47">
+        <v>104.2475</v>
+      </c>
+      <c r="F47">
+        <v>106.8975</v>
+      </c>
+      <c r="G47">
+        <v>3.38</v>
+      </c>
+      <c r="H47">
+        <v>234.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>7.2</v>
+      </c>
+      <c r="K47">
+        <v>1.53</v>
+      </c>
+      <c r="L47">
+        <v>5.67</v>
+      </c>
+      <c r="M47">
+        <v>19.63707075</v>
+      </c>
+      <c r="N47">
+        <v>-13.96707075</v>
+      </c>
+      <c r="O47">
+        <v>-0</v>
+      </c>
+      <c r="P47">
+        <v>-13.96707075</v>
+      </c>
+      <c r="Q47">
+        <v>-12.43707075</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1845030513795509</v>
+      </c>
+      <c r="T47">
+        <v>1.743359125231815</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0.1837</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.2887396023666106</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.185885678258753</v>
+      </c>
+      <c r="C48">
+        <v>22.75796598712036</v>
+      </c>
+      <c r="D48">
+        <v>128.6509659871204</v>
+      </c>
+      <c r="E48">
+        <v>106.623</v>
+      </c>
+      <c r="F48">
+        <v>109.273</v>
+      </c>
+      <c r="G48">
+        <v>3.38</v>
+      </c>
+      <c r="H48">
+        <v>234.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>7.2</v>
+      </c>
+      <c r="K48">
+        <v>1.53</v>
+      </c>
+      <c r="L48">
+        <v>5.67</v>
+      </c>
+      <c r="M48">
+        <v>20.0734501</v>
+      </c>
+      <c r="N48">
+        <v>-14.4034501</v>
+      </c>
+      <c r="O48">
+        <v>-0</v>
+      </c>
+      <c r="P48">
+        <v>-14.4034501</v>
+      </c>
+      <c r="Q48">
+        <v>-12.8734501</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1877475523310241</v>
+      </c>
+      <c r="T48">
+        <v>1.775643553476848</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0.1837</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.2824626544890756</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.187629678258753</v>
+      </c>
+      <c r="C49">
+        <v>19.12430589356606</v>
+      </c>
+      <c r="D49">
+        <v>127.3928058935661</v>
+      </c>
+      <c r="E49">
+        <v>108.9985</v>
+      </c>
+      <c r="F49">
+        <v>111.6485</v>
+      </c>
+      <c r="G49">
+        <v>3.38</v>
+      </c>
+      <c r="H49">
+        <v>234.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>7.2</v>
+      </c>
+      <c r="K49">
+        <v>1.53</v>
+      </c>
+      <c r="L49">
+        <v>5.67</v>
+      </c>
+      <c r="M49">
+        <v>20.50982945</v>
+      </c>
+      <c r="N49">
+        <v>-14.83982945</v>
+      </c>
+      <c r="O49">
+        <v>-0</v>
+      </c>
+      <c r="P49">
+        <v>-14.83982945</v>
+      </c>
+      <c r="Q49">
+        <v>-13.30982945</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1911144872806661</v>
+      </c>
+      <c r="T49">
+        <v>1.809146262033015</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0.1837</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.276452810776542</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.189373678258753</v>
+      </c>
+      <c r="C50">
+        <v>15.515016171344</v>
+      </c>
+      <c r="D50">
+        <v>126.159016171344</v>
+      </c>
+      <c r="E50">
+        <v>111.374</v>
+      </c>
+      <c r="F50">
+        <v>114.024</v>
+      </c>
+      <c r="G50">
+        <v>3.38</v>
+      </c>
+      <c r="H50">
+        <v>234.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>7.2</v>
+      </c>
+      <c r="K50">
+        <v>1.53</v>
+      </c>
+      <c r="L50">
+        <v>5.67</v>
+      </c>
+      <c r="M50">
+        <v>20.9462088</v>
+      </c>
+      <c r="N50">
+        <v>-15.2762088</v>
+      </c>
+      <c r="O50">
+        <v>-0</v>
+      </c>
+      <c r="P50">
+        <v>-15.2762088</v>
+      </c>
+      <c r="Q50">
+        <v>-13.7462088</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1946109197283712</v>
+      </c>
+      <c r="T50">
+        <v>1.843937536302881</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0.1837</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.2706933772186975</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.191117678258753</v>
+      </c>
+      <c r="C51">
+        <v>11.92939553670631</v>
+      </c>
+      <c r="D51">
+        <v>124.9488955367063</v>
+      </c>
+      <c r="E51">
+        <v>113.7495</v>
+      </c>
+      <c r="F51">
+        <v>116.3995</v>
+      </c>
+      <c r="G51">
+        <v>3.38</v>
+      </c>
+      <c r="H51">
+        <v>234.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>7.2</v>
+      </c>
+      <c r="K51">
+        <v>1.53</v>
+      </c>
+      <c r="L51">
+        <v>5.67</v>
+      </c>
+      <c r="M51">
+        <v>21.38258815</v>
+      </c>
+      <c r="N51">
+        <v>-15.71258815</v>
+      </c>
+      <c r="O51">
+        <v>-0</v>
+      </c>
+      <c r="P51">
+        <v>-15.71258815</v>
+      </c>
+      <c r="Q51">
+        <v>-14.18258815</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1982444671740256</v>
+      </c>
+      <c r="T51">
+        <v>1.880093174269604</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0.1837</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.2651690225815811</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.192861678258753</v>
+      </c>
+      <c r="C52">
+        <v>8.366769357194926</v>
+      </c>
+      <c r="D52">
+        <v>123.7617693571949</v>
+      </c>
+      <c r="E52">
+        <v>116.125</v>
+      </c>
+      <c r="F52">
+        <v>118.775</v>
+      </c>
+      <c r="G52">
+        <v>3.38</v>
+      </c>
+      <c r="H52">
+        <v>234.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>7.2</v>
+      </c>
+      <c r="K52">
+        <v>1.53</v>
+      </c>
+      <c r="L52">
+        <v>5.67</v>
+      </c>
+      <c r="M52">
+        <v>21.8189675</v>
+      </c>
+      <c r="N52">
+        <v>-16.1489675</v>
+      </c>
+      <c r="O52">
+        <v>-0</v>
+      </c>
+      <c r="P52">
+        <v>-16.1489675</v>
+      </c>
+      <c r="Q52">
+        <v>-14.6189675</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.2020233565175061</v>
+      </c>
+      <c r="T52">
+        <v>1.917695037754996</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0.1837</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.2598656421299494</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.194605678258753</v>
+      </c>
+      <c r="C53">
+        <v>4.826488397501095</v>
+      </c>
+      <c r="D53">
+        <v>122.5969883975011</v>
+      </c>
+      <c r="E53">
+        <v>118.5005</v>
+      </c>
+      <c r="F53">
+        <v>121.1505</v>
+      </c>
+      <c r="G53">
+        <v>3.38</v>
+      </c>
+      <c r="H53">
+        <v>234.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>7.2</v>
+      </c>
+      <c r="K53">
+        <v>1.53</v>
+      </c>
+      <c r="L53">
+        <v>5.67</v>
+      </c>
+      <c r="M53">
+        <v>22.25534685</v>
+      </c>
+      <c r="N53">
+        <v>-16.58534685</v>
+      </c>
+      <c r="O53">
+        <v>-0</v>
+      </c>
+      <c r="P53">
+        <v>-16.58534685</v>
+      </c>
+      <c r="Q53">
+        <v>-15.05534685</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.2059564862423531</v>
+      </c>
+      <c r="T53">
+        <v>1.956831671178568</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0.1837</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.2547702373823035</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.196349678258753</v>
+      </c>
+      <c r="C54">
+        <v>1.30792763548537</v>
+      </c>
+      <c r="D54">
+        <v>121.4539276354854</v>
+      </c>
+      <c r="E54">
+        <v>120.876</v>
+      </c>
+      <c r="F54">
+        <v>123.526</v>
+      </c>
+      <c r="G54">
+        <v>3.38</v>
+      </c>
+      <c r="H54">
+        <v>234.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>7.2</v>
+      </c>
+      <c r="K54">
+        <v>1.53</v>
+      </c>
+      <c r="L54">
+        <v>5.67</v>
+      </c>
+      <c r="M54">
+        <v>22.6917262</v>
+      </c>
+      <c r="N54">
+        <v>-17.0217262</v>
+      </c>
+      <c r="O54">
+        <v>-0</v>
+      </c>
+      <c r="P54">
+        <v>-17.0217262</v>
+      </c>
+      <c r="Q54">
+        <v>-15.4917262</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.2100534963724022</v>
+      </c>
+      <c r="T54">
+        <v>1.997598997661455</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0.1837</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.249870809740336</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.198093678258753</v>
+      </c>
+      <c r="C55">
+        <v>-2.189514856179926</v>
+      </c>
+      <c r="D55">
+        <v>120.3319851438201</v>
+      </c>
+      <c r="E55">
+        <v>123.2515</v>
+      </c>
+      <c r="F55">
+        <v>125.9015</v>
+      </c>
+      <c r="G55">
+        <v>3.38</v>
+      </c>
+      <c r="H55">
+        <v>234.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>7.2</v>
+      </c>
+      <c r="K55">
+        <v>1.53</v>
+      </c>
+      <c r="L55">
+        <v>5.67</v>
+      </c>
+      <c r="M55">
+        <v>23.12810555</v>
+      </c>
+      <c r="N55">
+        <v>-17.45810555000001</v>
+      </c>
+      <c r="O55">
+        <v>-0</v>
+      </c>
+      <c r="P55">
+        <v>-17.45810555000001</v>
+      </c>
+      <c r="Q55">
+        <v>-15.92810555000001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.214324847359049</v>
+      </c>
+      <c r="T55">
+        <v>2.040101103994677</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0.1837</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2451562661603296</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.199837678258753</v>
+      </c>
+      <c r="C56">
+        <v>-5.666418966950275</v>
+      </c>
+      <c r="D56">
+        <v>119.2305810330497</v>
+      </c>
+      <c r="E56">
+        <v>125.627</v>
+      </c>
+      <c r="F56">
+        <v>128.277</v>
+      </c>
+      <c r="G56">
+        <v>3.38</v>
+      </c>
+      <c r="H56">
+        <v>234.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>7.2</v>
+      </c>
+      <c r="K56">
+        <v>1.53</v>
+      </c>
+      <c r="L56">
+        <v>5.67</v>
+      </c>
+      <c r="M56">
+        <v>23.5644849</v>
+      </c>
+      <c r="N56">
+        <v>-17.8944849</v>
+      </c>
+      <c r="O56">
+        <v>-0</v>
+      </c>
+      <c r="P56">
+        <v>-17.8944849</v>
+      </c>
+      <c r="Q56">
+        <v>-16.3644849</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.2187819092581587</v>
+      </c>
+      <c r="T56">
+        <v>2.084451127994561</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0.1837</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2406163353055089</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.201581678258753</v>
+      </c>
+      <c r="C57">
+        <v>-9.123343547829023</v>
+      </c>
+      <c r="D57">
+        <v>118.149156452171</v>
+      </c>
+      <c r="E57">
+        <v>128.0025</v>
+      </c>
+      <c r="F57">
+        <v>130.6525</v>
+      </c>
+      <c r="G57">
+        <v>3.38</v>
+      </c>
+      <c r="H57">
+        <v>234.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>7.2</v>
+      </c>
+      <c r="K57">
+        <v>1.53</v>
+      </c>
+      <c r="L57">
+        <v>5.67</v>
+      </c>
+      <c r="M57">
+        <v>24.00086425</v>
+      </c>
+      <c r="N57">
+        <v>-18.33086425</v>
+      </c>
+      <c r="O57">
+        <v>-0</v>
+      </c>
+      <c r="P57">
+        <v>-18.33086425</v>
+      </c>
+      <c r="Q57">
+        <v>-16.80086425</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.223437062797229</v>
+      </c>
+      <c r="T57">
+        <v>2.130772264172218</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0.1837</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.2362414928454087</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.203325678258753</v>
+      </c>
+      <c r="C58">
+        <v>-12.56082735688855</v>
+      </c>
+      <c r="D58">
+        <v>117.0871726431115</v>
+      </c>
+      <c r="E58">
+        <v>130.378</v>
+      </c>
+      <c r="F58">
+        <v>133.028</v>
+      </c>
+      <c r="G58">
+        <v>3.38</v>
+      </c>
+      <c r="H58">
+        <v>234.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>7.2</v>
+      </c>
+      <c r="K58">
+        <v>1.53</v>
+      </c>
+      <c r="L58">
+        <v>5.67</v>
+      </c>
+      <c r="M58">
+        <v>24.43724360000001</v>
+      </c>
+      <c r="N58">
+        <v>-18.76724360000001</v>
+      </c>
+      <c r="O58">
+        <v>-0</v>
+      </c>
+      <c r="P58">
+        <v>-18.76724360000001</v>
+      </c>
+      <c r="Q58">
+        <v>-17.23724360000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.2283038142244387</v>
+      </c>
+      <c r="T58">
+        <v>2.179198906539769</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0.1837</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.2320228947588834</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.2050696782587531</v>
+      </c>
+      <c r="C59">
+        <v>-15.97938995425201</v>
+      </c>
+      <c r="D59">
+        <v>116.044110045748</v>
+      </c>
+      <c r="E59">
+        <v>132.7535</v>
+      </c>
+      <c r="F59">
+        <v>135.4035</v>
+      </c>
+      <c r="G59">
+        <v>3.38</v>
+      </c>
+      <c r="H59">
+        <v>234.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>7.2</v>
+      </c>
+      <c r="K59">
+        <v>1.53</v>
+      </c>
+      <c r="L59">
+        <v>5.67</v>
+      </c>
+      <c r="M59">
+        <v>24.87362295</v>
+      </c>
+      <c r="N59">
+        <v>-19.20362295</v>
+      </c>
+      <c r="O59">
+        <v>-0</v>
+      </c>
+      <c r="P59">
+        <v>-19.20362295</v>
+      </c>
+      <c r="Q59">
+        <v>-17.67362295</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.2333969261831466</v>
+      </c>
+      <c r="T59">
+        <v>2.229877950877903</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0.1837</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.2279523176578504</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.206813678258753</v>
+      </c>
+      <c r="C60">
+        <v>-19.37953254966078</v>
+      </c>
+      <c r="D60">
+        <v>115.0194674503392</v>
+      </c>
+      <c r="E60">
+        <v>135.129</v>
+      </c>
+      <c r="F60">
+        <v>137.779</v>
+      </c>
+      <c r="G60">
+        <v>3.38</v>
+      </c>
+      <c r="H60">
+        <v>234.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>7.2</v>
+      </c>
+      <c r="K60">
+        <v>1.53</v>
+      </c>
+      <c r="L60">
+        <v>5.67</v>
+      </c>
+      <c r="M60">
+        <v>25.3100023</v>
+      </c>
+      <c r="N60">
+        <v>-19.6400023</v>
+      </c>
+      <c r="O60">
+        <v>-0</v>
+      </c>
+      <c r="P60">
+        <v>-19.6400023</v>
+      </c>
+      <c r="Q60">
+        <v>-18.1100023</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2387325672827453</v>
+      </c>
+      <c r="T60">
+        <v>2.282970283041662</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0.1837</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.2240221052844393</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.208557678258753</v>
+      </c>
+      <c r="C61">
+        <v>-22.76173880553164</v>
+      </c>
+      <c r="D61">
+        <v>114.0127611944684</v>
+      </c>
+      <c r="E61">
+        <v>137.5045</v>
+      </c>
+      <c r="F61">
+        <v>140.1545</v>
+      </c>
+      <c r="G61">
+        <v>3.38</v>
+      </c>
+      <c r="H61">
+        <v>234.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>7.2</v>
+      </c>
+      <c r="K61">
+        <v>1.53</v>
+      </c>
+      <c r="L61">
+        <v>5.67</v>
+      </c>
+      <c r="M61">
+        <v>25.74638165</v>
+      </c>
+      <c r="N61">
+        <v>-20.07638165</v>
+      </c>
+      <c r="O61">
+        <v>-0</v>
+      </c>
+      <c r="P61">
+        <v>-20.07638165</v>
+      </c>
+      <c r="Q61">
+        <v>-18.54638165</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2443284835579342</v>
+      </c>
+      <c r="T61">
+        <v>2.338652485067068</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0.1837</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.2202251204491098</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.210301678258753</v>
+      </c>
+      <c r="C62">
+        <v>-26.12647559820752</v>
+      </c>
+      <c r="D62">
+        <v>113.0235244017925</v>
+      </c>
+      <c r="E62">
+        <v>139.88</v>
+      </c>
+      <c r="F62">
+        <v>142.53</v>
+      </c>
+      <c r="G62">
+        <v>3.38</v>
+      </c>
+      <c r="H62">
+        <v>234.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>7.2</v>
+      </c>
+      <c r="K62">
+        <v>1.53</v>
+      </c>
+      <c r="L62">
+        <v>5.67</v>
+      </c>
+      <c r="M62">
+        <v>26.182761</v>
+      </c>
+      <c r="N62">
+        <v>-20.512761</v>
+      </c>
+      <c r="O62">
+        <v>-0</v>
+      </c>
+      <c r="P62">
+        <v>-20.512761</v>
+      </c>
+      <c r="Q62">
+        <v>-18.982761</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2502041956468826</v>
+      </c>
+      <c r="T62">
+        <v>2.397118797193745</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0.1837</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.2165547017749581</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.212045678258753</v>
+      </c>
+      <c r="C63">
+        <v>-29.47419373991885</v>
+      </c>
+      <c r="D63">
+        <v>112.0513062600812</v>
+      </c>
+      <c r="E63">
+        <v>142.2555</v>
+      </c>
+      <c r="F63">
+        <v>144.9055</v>
+      </c>
+      <c r="G63">
+        <v>3.38</v>
+      </c>
+      <c r="H63">
+        <v>234.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>7.2</v>
+      </c>
+      <c r="K63">
+        <v>1.53</v>
+      </c>
+      <c r="L63">
+        <v>5.67</v>
+      </c>
+      <c r="M63">
+        <v>26.61914035</v>
+      </c>
+      <c r="N63">
+        <v>-20.94914035</v>
+      </c>
+      <c r="O63">
+        <v>-0</v>
+      </c>
+      <c r="P63">
+        <v>-20.94914035</v>
+      </c>
+      <c r="Q63">
+        <v>-19.41914035</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2563812263044949</v>
+      </c>
+      <c r="T63">
+        <v>2.458583381737174</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0.1837</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.21300462469668</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.213789678258753</v>
+      </c>
+      <c r="C64">
+        <v>-32.80532866380145</v>
+      </c>
+      <c r="D64">
+        <v>111.0956713361986</v>
+      </c>
+      <c r="E64">
+        <v>144.631</v>
+      </c>
+      <c r="F64">
+        <v>147.281</v>
+      </c>
+      <c r="G64">
+        <v>3.38</v>
+      </c>
+      <c r="H64">
+        <v>234.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>7.2</v>
+      </c>
+      <c r="K64">
+        <v>1.53</v>
+      </c>
+      <c r="L64">
+        <v>5.67</v>
+      </c>
+      <c r="M64">
+        <v>27.0555197</v>
+      </c>
+      <c r="N64">
+        <v>-21.3855197</v>
+      </c>
+      <c r="O64">
+        <v>-0</v>
+      </c>
+      <c r="P64">
+        <v>-21.3855197</v>
+      </c>
+      <c r="Q64">
+        <v>-19.8555197</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2628833638388238</v>
+      </c>
+      <c r="T64">
+        <v>2.523282944414469</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0.1837</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.2095690662338302</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.215533678258753</v>
+      </c>
+      <c r="C65">
+        <v>-36.12030107415741</v>
+      </c>
+      <c r="D65">
+        <v>110.1561989258426</v>
+      </c>
+      <c r="E65">
+        <v>147.0065</v>
+      </c>
+      <c r="F65">
+        <v>149.6565</v>
+      </c>
+      <c r="G65">
+        <v>3.38</v>
+      </c>
+      <c r="H65">
+        <v>234.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>7.2</v>
+      </c>
+      <c r="K65">
+        <v>1.53</v>
+      </c>
+      <c r="L65">
+        <v>5.67</v>
+      </c>
+      <c r="M65">
+        <v>27.49189905</v>
+      </c>
+      <c r="N65">
+        <v>-21.82189905</v>
+      </c>
+      <c r="O65">
+        <v>-0</v>
+      </c>
+      <c r="P65">
+        <v>-21.82189905</v>
+      </c>
+      <c r="Q65">
+        <v>-20.29189905</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2697369682669001</v>
+      </c>
+      <c r="T65">
+        <v>2.591479780749995</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0.1837</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.2062425731190076</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.217277678258753</v>
+      </c>
+      <c r="C66">
+        <v>-39.41951756399943</v>
+      </c>
+      <c r="D66">
+        <v>109.2324824360006</v>
+      </c>
+      <c r="E66">
+        <v>149.382</v>
+      </c>
+      <c r="F66">
+        <v>152.032</v>
+      </c>
+      <c r="G66">
+        <v>3.38</v>
+      </c>
+      <c r="H66">
+        <v>234.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>7.2</v>
+      </c>
+      <c r="K66">
+        <v>1.53</v>
+      </c>
+      <c r="L66">
+        <v>5.67</v>
+      </c>
+      <c r="M66">
+        <v>27.9282784</v>
+      </c>
+      <c r="N66">
+        <v>-22.2582784</v>
+      </c>
+      <c r="O66">
+        <v>-0</v>
+      </c>
+      <c r="P66">
+        <v>-22.2582784</v>
+      </c>
+      <c r="Q66">
+        <v>-20.7282784</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2769713284965362</v>
+      </c>
+      <c r="T66">
+        <v>2.663465330215272</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0.1837</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.2030200329140232</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.219021678258753</v>
+      </c>
+      <c r="C67">
+        <v>-42.70337120178287</v>
+      </c>
+      <c r="D67">
+        <v>108.3241287982171</v>
+      </c>
+      <c r="E67">
+        <v>151.7575</v>
+      </c>
+      <c r="F67">
+        <v>154.4075</v>
+      </c>
+      <c r="G67">
+        <v>3.38</v>
+      </c>
+      <c r="H67">
+        <v>234.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>7.2</v>
+      </c>
+      <c r="K67">
+        <v>1.53</v>
+      </c>
+      <c r="L67">
+        <v>5.67</v>
+      </c>
+      <c r="M67">
+        <v>28.36465775</v>
+      </c>
+      <c r="N67">
+        <v>-22.69465775</v>
+      </c>
+      <c r="O67">
+        <v>-0</v>
+      </c>
+      <c r="P67">
+        <v>-22.69465775</v>
+      </c>
+      <c r="Q67">
+        <v>-21.16465775</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2846190807392944</v>
+      </c>
+      <c r="T67">
+        <v>2.739564339649995</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0.1837</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1998966477922689</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.220765678258753</v>
+      </c>
+      <c r="C68">
+        <v>-45.9722420891045</v>
+      </c>
+      <c r="D68">
+        <v>107.4307579108955</v>
+      </c>
+      <c r="E68">
+        <v>154.133</v>
+      </c>
+      <c r="F68">
+        <v>156.783</v>
+      </c>
+      <c r="G68">
+        <v>3.38</v>
+      </c>
+      <c r="H68">
+        <v>234.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>7.2</v>
+      </c>
+      <c r="K68">
+        <v>1.53</v>
+      </c>
+      <c r="L68">
+        <v>5.67</v>
+      </c>
+      <c r="M68">
+        <v>28.8010371</v>
+      </c>
+      <c r="N68">
+        <v>-23.1310371</v>
+      </c>
+      <c r="O68">
+        <v>-0</v>
+      </c>
+      <c r="P68">
+        <v>-23.1310371</v>
+      </c>
+      <c r="Q68">
+        <v>-21.6010371</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2927167007610383</v>
+      </c>
+      <c r="T68">
+        <v>2.820139761404406</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0.1837</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1968679107045073</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.222509678258753</v>
+      </c>
+      <c r="C69">
+        <v>-49.22649789103025</v>
+      </c>
+      <c r="D69">
+        <v>106.5520021089698</v>
+      </c>
+      <c r="E69">
+        <v>156.5085</v>
+      </c>
+      <c r="F69">
+        <v>159.1585</v>
+      </c>
+      <c r="G69">
+        <v>3.38</v>
+      </c>
+      <c r="H69">
+        <v>234.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>7.2</v>
+      </c>
+      <c r="K69">
+        <v>1.53</v>
+      </c>
+      <c r="L69">
+        <v>5.67</v>
+      </c>
+      <c r="M69">
+        <v>29.23741645</v>
+      </c>
+      <c r="N69">
+        <v>-23.56741645</v>
+      </c>
+      <c r="O69">
+        <v>-0</v>
+      </c>
+      <c r="P69">
+        <v>-23.56741645</v>
+      </c>
+      <c r="Q69">
+        <v>-22.03741645</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.301305085632585</v>
+      </c>
+      <c r="T69">
+        <v>2.905598542053025</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0.1837</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1939295836790668</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.224253678258753</v>
+      </c>
+      <c r="C70">
+        <v>-52.4664943406065</v>
+      </c>
+      <c r="D70">
+        <v>105.6875056593935</v>
+      </c>
+      <c r="E70">
+        <v>158.884</v>
+      </c>
+      <c r="F70">
+        <v>161.534</v>
+      </c>
+      <c r="G70">
+        <v>3.38</v>
+      </c>
+      <c r="H70">
+        <v>234.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>7.2</v>
+      </c>
+      <c r="K70">
+        <v>1.53</v>
+      </c>
+      <c r="L70">
+        <v>5.67</v>
+      </c>
+      <c r="M70">
+        <v>29.6737958</v>
+      </c>
+      <c r="N70">
+        <v>-24.00379580000001</v>
+      </c>
+      <c r="O70">
+        <v>-0</v>
+      </c>
+      <c r="P70">
+        <v>-24.00379580000001</v>
+      </c>
+      <c r="Q70">
+        <v>-22.4737958</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.3104302445586032</v>
+      </c>
+      <c r="T70">
+        <v>2.996398496492182</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0.1837</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1910776780367275</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.225997678258753</v>
+      </c>
+      <c r="C71">
+        <v>-55.69257571900913</v>
+      </c>
+      <c r="D71">
+        <v>104.8369242809909</v>
+      </c>
+      <c r="E71">
+        <v>161.2595</v>
+      </c>
+      <c r="F71">
+        <v>163.9095</v>
+      </c>
+      <c r="G71">
+        <v>3.38</v>
+      </c>
+      <c r="H71">
+        <v>234.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>7.2</v>
+      </c>
+      <c r="K71">
+        <v>1.53</v>
+      </c>
+      <c r="L71">
+        <v>5.67</v>
+      </c>
+      <c r="M71">
+        <v>30.11017515</v>
+      </c>
+      <c r="N71">
+        <v>-24.44017515</v>
+      </c>
+      <c r="O71">
+        <v>-0</v>
+      </c>
+      <c r="P71">
+        <v>-24.44017515</v>
+      </c>
+      <c r="Q71">
+        <v>-22.91017515</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.3201441234153324</v>
+      </c>
+      <c r="T71">
+        <v>3.093056512508059</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0.1837</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1883084363260504</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.227741678258753</v>
+      </c>
+      <c r="C72">
+        <v>-58.90507531269233</v>
+      </c>
+      <c r="D72">
+        <v>103.9999246873077</v>
+      </c>
+      <c r="E72">
+        <v>163.635</v>
+      </c>
+      <c r="F72">
+        <v>166.285</v>
+      </c>
+      <c r="G72">
+        <v>3.38</v>
+      </c>
+      <c r="H72">
+        <v>234.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>7.2</v>
+      </c>
+      <c r="K72">
+        <v>1.53</v>
+      </c>
+      <c r="L72">
+        <v>5.67</v>
+      </c>
+      <c r="M72">
+        <v>30.54655450000001</v>
+      </c>
+      <c r="N72">
+        <v>-24.8765545</v>
+      </c>
+      <c r="O72">
+        <v>-0</v>
+      </c>
+      <c r="P72">
+        <v>-24.8765545</v>
+      </c>
+      <c r="Q72">
+        <v>-23.3465545</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.3305055941958435</v>
+      </c>
+      <c r="T72">
+        <v>3.196158396258328</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0.1837</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1856183158071069</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.229485678258753</v>
+      </c>
+      <c r="C73">
+        <v>-62.10431584881164</v>
+      </c>
+      <c r="D73">
+        <v>103.1761841511884</v>
+      </c>
+      <c r="E73">
+        <v>166.0105</v>
+      </c>
+      <c r="F73">
+        <v>168.6605</v>
+      </c>
+      <c r="G73">
+        <v>3.38</v>
+      </c>
+      <c r="H73">
+        <v>234.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>7.2</v>
+      </c>
+      <c r="K73">
+        <v>1.53</v>
+      </c>
+      <c r="L73">
+        <v>5.67</v>
+      </c>
+      <c r="M73">
+        <v>30.98293385</v>
+      </c>
+      <c r="N73">
+        <v>-25.31293385</v>
+      </c>
+      <c r="O73">
+        <v>-0</v>
+      </c>
+      <c r="P73">
+        <v>-25.31293385</v>
+      </c>
+      <c r="Q73">
+        <v>-23.78293385</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.3415816491681138</v>
+      </c>
+      <c r="T73">
+        <v>3.306370754749993</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0.1837</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.1830039733309504</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.231229678258753</v>
+      </c>
+      <c r="C74">
+        <v>-65.29060991011728</v>
+      </c>
+      <c r="D74">
+        <v>102.3653900898827</v>
+      </c>
+      <c r="E74">
+        <v>168.386</v>
+      </c>
+      <c r="F74">
+        <v>171.036</v>
+      </c>
+      <c r="G74">
+        <v>3.38</v>
+      </c>
+      <c r="H74">
+        <v>234.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>7.2</v>
+      </c>
+      <c r="K74">
+        <v>1.53</v>
+      </c>
+      <c r="L74">
+        <v>5.67</v>
+      </c>
+      <c r="M74">
+        <v>31.4193132</v>
+      </c>
+      <c r="N74">
+        <v>-25.7493132</v>
+      </c>
+      <c r="O74">
+        <v>-0</v>
+      </c>
+      <c r="P74">
+        <v>-25.7493132</v>
+      </c>
+      <c r="Q74">
+        <v>-24.2193132</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3534488509241179</v>
+      </c>
+      <c r="T74">
+        <v>3.424455424562493</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0.1837</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1804622514791315</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.232973678258753</v>
+      </c>
+      <c r="C75">
+        <v>-68.46426033043736</v>
+      </c>
+      <c r="D75">
+        <v>101.5672396695627</v>
+      </c>
+      <c r="E75">
+        <v>170.7615</v>
+      </c>
+      <c r="F75">
+        <v>173.4115</v>
+      </c>
+      <c r="G75">
+        <v>3.38</v>
+      </c>
+      <c r="H75">
+        <v>234.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>7.2</v>
+      </c>
+      <c r="K75">
+        <v>1.53</v>
+      </c>
+      <c r="L75">
+        <v>5.67</v>
+      </c>
+      <c r="M75">
+        <v>31.85569255</v>
+      </c>
+      <c r="N75">
+        <v>-26.18569255000001</v>
+      </c>
+      <c r="O75">
+        <v>-0</v>
+      </c>
+      <c r="P75">
+        <v>-26.18569255000001</v>
+      </c>
+      <c r="Q75">
+        <v>-24.65569255</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3661951046620482</v>
+      </c>
+      <c r="T75">
+        <v>3.551287106953696</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0.1837</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1779901658424311</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.234717678258753</v>
+      </c>
+      <c r="C76">
+        <v>-71.62556057180257</v>
+      </c>
+      <c r="D76">
+        <v>100.7814394281974</v>
+      </c>
+      <c r="E76">
+        <v>173.137</v>
+      </c>
+      <c r="F76">
+        <v>175.787</v>
+      </c>
+      <c r="G76">
+        <v>3.38</v>
+      </c>
+      <c r="H76">
+        <v>234.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>7.2</v>
+      </c>
+      <c r="K76">
+        <v>1.53</v>
+      </c>
+      <c r="L76">
+        <v>5.67</v>
+      </c>
+      <c r="M76">
+        <v>32.2920719</v>
+      </c>
+      <c r="N76">
+        <v>-26.6220719</v>
+      </c>
+      <c r="O76">
+        <v>-0</v>
+      </c>
+      <c r="P76">
+        <v>-26.6220719</v>
+      </c>
+      <c r="Q76">
+        <v>-25.0920719</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3799218394567423</v>
+      </c>
+      <c r="T76">
+        <v>3.687875072605761</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0.1837</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.175584893331047</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.236461678258753</v>
+      </c>
+      <c r="C77">
+        <v>-74.77479508419941</v>
+      </c>
+      <c r="D77">
+        <v>100.0077049158006</v>
+      </c>
+      <c r="E77">
+        <v>175.5125</v>
+      </c>
+      <c r="F77">
+        <v>178.1625</v>
+      </c>
+      <c r="G77">
+        <v>3.38</v>
+      </c>
+      <c r="H77">
+        <v>234.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>7.2</v>
+      </c>
+      <c r="K77">
+        <v>1.53</v>
+      </c>
+      <c r="L77">
+        <v>5.67</v>
+      </c>
+      <c r="M77">
+        <v>32.72845125000001</v>
+      </c>
+      <c r="N77">
+        <v>-27.05845125</v>
+      </c>
+      <c r="O77">
+        <v>-0</v>
+      </c>
+      <c r="P77">
+        <v>-27.05845125</v>
+      </c>
+      <c r="Q77">
+        <v>-25.52845125</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3947467130350121</v>
+      </c>
+      <c r="T77">
+        <v>3.835390075509992</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0.1837</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1732437614199663</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2382056782587531</v>
+      </c>
+      <c r="C78">
+        <v>-77.91223964887726</v>
+      </c>
+      <c r="D78">
+        <v>99.24576035112275</v>
+      </c>
+      <c r="E78">
+        <v>177.888</v>
+      </c>
+      <c r="F78">
+        <v>180.538</v>
+      </c>
+      <c r="G78">
+        <v>3.38</v>
+      </c>
+      <c r="H78">
+        <v>234.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>7.2</v>
+      </c>
+      <c r="K78">
+        <v>1.53</v>
+      </c>
+      <c r="L78">
+        <v>5.67</v>
+      </c>
+      <c r="M78">
+        <v>33.1648306</v>
+      </c>
+      <c r="N78">
+        <v>-27.4948306</v>
+      </c>
+      <c r="O78">
+        <v>-0</v>
+      </c>
+      <c r="P78">
+        <v>-27.4948306</v>
+      </c>
+      <c r="Q78">
+        <v>-25.9648306</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.4108069927448043</v>
+      </c>
+      <c r="T78">
+        <v>3.995197995322909</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0.1837</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1709642382433879</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.239949678258753</v>
+      </c>
+      <c r="C79">
+        <v>-81.03816170608114</v>
+      </c>
+      <c r="D79">
+        <v>98.49533829391886</v>
+      </c>
+      <c r="E79">
+        <v>180.2635</v>
+      </c>
+      <c r="F79">
+        <v>182.9135</v>
+      </c>
+      <c r="G79">
+        <v>3.38</v>
+      </c>
+      <c r="H79">
+        <v>234.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>7.2</v>
+      </c>
+      <c r="K79">
+        <v>1.53</v>
+      </c>
+      <c r="L79">
+        <v>5.67</v>
+      </c>
+      <c r="M79">
+        <v>33.60120995</v>
+      </c>
+      <c r="N79">
+        <v>-27.93120995</v>
+      </c>
+      <c r="O79">
+        <v>-0</v>
+      </c>
+      <c r="P79">
+        <v>-27.93120995</v>
+      </c>
+      <c r="Q79">
+        <v>-26.40120994999999</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.4282638185163175</v>
+      </c>
+      <c r="T79">
+        <v>4.168902255989122</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0.1837</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1687439234610063</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.241693678258753</v>
+      </c>
+      <c r="C80">
+        <v>-84.15282066802735</v>
+      </c>
+      <c r="D80">
+        <v>97.75617933197267</v>
+      </c>
+      <c r="E80">
+        <v>182.639</v>
+      </c>
+      <c r="F80">
+        <v>185.289</v>
+      </c>
+      <c r="G80">
+        <v>3.38</v>
+      </c>
+      <c r="H80">
+        <v>234.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>7.2</v>
+      </c>
+      <c r="K80">
+        <v>1.53</v>
+      </c>
+      <c r="L80">
+        <v>5.67</v>
+      </c>
+      <c r="M80">
+        <v>34.0375893</v>
+      </c>
+      <c r="N80">
+        <v>-28.3675893</v>
+      </c>
+      <c r="O80">
+        <v>-0</v>
+      </c>
+      <c r="P80">
+        <v>-28.3675893</v>
+      </c>
+      <c r="Q80">
+        <v>-26.8375893</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.4473076284488774</v>
+      </c>
+      <c r="T80">
+        <v>4.358397813079537</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0.1837</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1665805398268908</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.243437678258753</v>
+      </c>
+      <c r="C81">
+        <v>-87.25646821789138</v>
+      </c>
+      <c r="D81">
+        <v>97.02803178210863</v>
+      </c>
+      <c r="E81">
+        <v>185.0145</v>
+      </c>
+      <c r="F81">
+        <v>187.6645</v>
+      </c>
+      <c r="G81">
+        <v>3.38</v>
+      </c>
+      <c r="H81">
+        <v>234.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>7.2</v>
+      </c>
+      <c r="K81">
+        <v>1.53</v>
+      </c>
+      <c r="L81">
+        <v>5.67</v>
+      </c>
+      <c r="M81">
+        <v>34.47396865</v>
+      </c>
+      <c r="N81">
+        <v>-28.80396865</v>
+      </c>
+      <c r="O81">
+        <v>-0</v>
+      </c>
+      <c r="P81">
+        <v>-28.80396865</v>
+      </c>
+      <c r="Q81">
+        <v>-27.27396865</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.4681651345654907</v>
+      </c>
+      <c r="T81">
+        <v>4.565940566083325</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0.1837</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1644719253987023</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.245181678258753</v>
+      </c>
+      <c r="C82">
+        <v>-90.34934859553299</v>
+      </c>
+      <c r="D82">
+        <v>96.31065140446704</v>
+      </c>
+      <c r="E82">
+        <v>187.39</v>
+      </c>
+      <c r="F82">
+        <v>190.04</v>
+      </c>
+      <c r="G82">
+        <v>3.38</v>
+      </c>
+      <c r="H82">
+        <v>234.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>7.2</v>
+      </c>
+      <c r="K82">
+        <v>1.53</v>
+      </c>
+      <c r="L82">
+        <v>5.67</v>
+      </c>
+      <c r="M82">
+        <v>34.91034800000001</v>
+      </c>
+      <c r="N82">
+        <v>-29.240348</v>
+      </c>
+      <c r="O82">
+        <v>-0</v>
+      </c>
+      <c r="P82">
+        <v>-29.240348</v>
+      </c>
+      <c r="Q82">
+        <v>-27.710348</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4911083912937652</v>
+      </c>
+      <c r="T82">
+        <v>4.794237594387491</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0.1837</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1624160263312185</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2469256782587531</v>
+      </c>
+      <c r="C83">
+        <v>-93.43169887063873</v>
+      </c>
+      <c r="D83">
+        <v>95.60380112936129</v>
+      </c>
+      <c r="E83">
+        <v>189.7655</v>
+      </c>
+      <c r="F83">
+        <v>192.4155</v>
+      </c>
+      <c r="G83">
+        <v>3.38</v>
+      </c>
+      <c r="H83">
+        <v>234.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>7.2</v>
+      </c>
+      <c r="K83">
+        <v>1.53</v>
+      </c>
+      <c r="L83">
+        <v>5.67</v>
+      </c>
+      <c r="M83">
+        <v>35.34672735</v>
+      </c>
+      <c r="N83">
+        <v>-29.67672735</v>
+      </c>
+      <c r="O83">
+        <v>-0</v>
+      </c>
+      <c r="P83">
+        <v>-29.67672735</v>
+      </c>
+      <c r="Q83">
+        <v>-28.14672735</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.5164667276776477</v>
+      </c>
+      <c r="T83">
+        <v>5.046565888828939</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0.1837</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1604108902036726</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2486696782587531</v>
+      </c>
+      <c r="C84">
+        <v>-96.50374920392436</v>
+      </c>
+      <c r="D84">
+        <v>94.90725079607567</v>
+      </c>
+      <c r="E84">
+        <v>192.141</v>
+      </c>
+      <c r="F84">
+        <v>194.791</v>
+      </c>
+      <c r="G84">
+        <v>3.38</v>
+      </c>
+      <c r="H84">
+        <v>234.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>7.2</v>
+      </c>
+      <c r="K84">
+        <v>1.53</v>
+      </c>
+      <c r="L84">
+        <v>5.67</v>
+      </c>
+      <c r="M84">
+        <v>35.7831067</v>
+      </c>
+      <c r="N84">
+        <v>-30.1131067</v>
+      </c>
+      <c r="O84">
+        <v>-0</v>
+      </c>
+      <c r="P84">
+        <v>-30.1131067</v>
+      </c>
+      <c r="Q84">
+        <v>-28.5831067</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.5446426569930726</v>
+      </c>
+      <c r="T84">
+        <v>5.326930660430547</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0.1837</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1584546598353351</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.250413678258753</v>
+      </c>
+      <c r="C85">
+        <v>-99.56572309700117</v>
+      </c>
+      <c r="D85">
+        <v>94.22077690299885</v>
+      </c>
+      <c r="E85">
+        <v>194.5165</v>
+      </c>
+      <c r="F85">
+        <v>197.1665</v>
+      </c>
+      <c r="G85">
+        <v>3.38</v>
+      </c>
+      <c r="H85">
+        <v>234.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>7.2</v>
+      </c>
+      <c r="K85">
+        <v>1.53</v>
+      </c>
+      <c r="L85">
+        <v>5.67</v>
+      </c>
+      <c r="M85">
+        <v>36.21948605</v>
+      </c>
+      <c r="N85">
+        <v>-30.54948605</v>
+      </c>
+      <c r="O85">
+        <v>-0</v>
+      </c>
+      <c r="P85">
+        <v>-30.54948605</v>
+      </c>
+      <c r="Q85">
+        <v>-29.01948605</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.5761334015220768</v>
+      </c>
+      <c r="T85">
+        <v>5.640279522808815</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0.1837</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1565455675481624</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.252157678258753</v>
+      </c>
+      <c r="C86">
+        <v>-102.6178376314766</v>
+      </c>
+      <c r="D86">
+        <v>93.54416236852344</v>
+      </c>
+      <c r="E86">
+        <v>196.892</v>
+      </c>
+      <c r="F86">
+        <v>199.542</v>
+      </c>
+      <c r="G86">
+        <v>3.38</v>
+      </c>
+      <c r="H86">
+        <v>234.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>7.2</v>
+      </c>
+      <c r="K86">
+        <v>1.53</v>
+      </c>
+      <c r="L86">
+        <v>5.67</v>
+      </c>
+      <c r="M86">
+        <v>36.6558654</v>
+      </c>
+      <c r="N86">
+        <v>-30.9858654</v>
+      </c>
+      <c r="O86">
+        <v>-0</v>
+      </c>
+      <c r="P86">
+        <v>-30.9858654</v>
+      </c>
+      <c r="Q86">
+        <v>-29.4558654</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.6115604891172064</v>
+      </c>
+      <c r="T86">
+        <v>5.992796992984363</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0.1837</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1546819298392558</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.253901678258753</v>
+      </c>
+      <c r="C87">
+        <v>-105.660303697826</v>
+      </c>
+      <c r="D87">
+        <v>92.87719630217401</v>
+      </c>
+      <c r="E87">
+        <v>199.2675</v>
+      </c>
+      <c r="F87">
+        <v>201.9175</v>
+      </c>
+      <c r="G87">
+        <v>3.38</v>
+      </c>
+      <c r="H87">
+        <v>234.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>7.2</v>
+      </c>
+      <c r="K87">
+        <v>1.53</v>
+      </c>
+      <c r="L87">
+        <v>5.67</v>
+      </c>
+      <c r="M87">
+        <v>37.09224475000001</v>
+      </c>
+      <c r="N87">
+        <v>-31.42224475</v>
+      </c>
+      <c r="O87">
+        <v>-0</v>
+      </c>
+      <c r="P87">
+        <v>-31.42224475</v>
+      </c>
+      <c r="Q87">
+        <v>-29.89224475</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.6517111883916867</v>
+      </c>
+      <c r="T87">
+        <v>6.392316792516653</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0.1837</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1528621424293821</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2556456782587531</v>
+      </c>
+      <c r="C88">
+        <v>-108.6933262145428</v>
+      </c>
+      <c r="D88">
+        <v>92.21967378545726</v>
+      </c>
+      <c r="E88">
+        <v>201.643</v>
+      </c>
+      <c r="F88">
+        <v>204.293</v>
+      </c>
+      <c r="G88">
+        <v>3.38</v>
+      </c>
+      <c r="H88">
+        <v>234.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>7.2</v>
+      </c>
+      <c r="K88">
+        <v>1.53</v>
+      </c>
+      <c r="L88">
+        <v>5.67</v>
+      </c>
+      <c r="M88">
+        <v>37.5286241</v>
+      </c>
+      <c r="N88">
+        <v>-31.8586241</v>
+      </c>
+      <c r="O88">
+        <v>-0</v>
+      </c>
+      <c r="P88">
+        <v>-31.8586241</v>
+      </c>
+      <c r="Q88">
+        <v>-30.3286241</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.6975977018482358</v>
+      </c>
+      <c r="T88">
+        <v>6.848910849124985</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0.1837</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1510846756569475</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.257389678258753</v>
+      </c>
+      <c r="C89">
+        <v>-111.7171043380449</v>
+      </c>
+      <c r="D89">
+        <v>91.57139566195509</v>
+      </c>
+      <c r="E89">
+        <v>204.0185</v>
+      </c>
+      <c r="F89">
+        <v>206.6685</v>
+      </c>
+      <c r="G89">
+        <v>3.38</v>
+      </c>
+      <c r="H89">
+        <v>234.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>7.2</v>
+      </c>
+      <c r="K89">
+        <v>1.53</v>
+      </c>
+      <c r="L89">
+        <v>5.67</v>
+      </c>
+      <c r="M89">
+        <v>37.96500345</v>
+      </c>
+      <c r="N89">
+        <v>-32.29500345</v>
+      </c>
+      <c r="O89">
+        <v>-0</v>
+      </c>
+      <c r="P89">
+        <v>-32.29500345</v>
+      </c>
+      <c r="Q89">
+        <v>-30.76500345</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.7505436789134847</v>
+      </c>
+      <c r="T89">
+        <v>7.375750145211523</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0.1837</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1493480701896263</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.259133678258753</v>
+      </c>
+      <c r="C90">
+        <v>-114.7318316637902</v>
+      </c>
+      <c r="D90">
+        <v>90.93216833620984</v>
+      </c>
+      <c r="E90">
+        <v>206.394</v>
+      </c>
+      <c r="F90">
+        <v>209.044</v>
+      </c>
+      <c r="G90">
+        <v>3.38</v>
+      </c>
+      <c r="H90">
+        <v>234.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>7.2</v>
+      </c>
+      <c r="K90">
+        <v>1.53</v>
+      </c>
+      <c r="L90">
+        <v>5.67</v>
+      </c>
+      <c r="M90">
+        <v>38.4013828</v>
+      </c>
+      <c r="N90">
+        <v>-32.7313828</v>
+      </c>
+      <c r="O90">
+        <v>-0</v>
+      </c>
+      <c r="P90">
+        <v>-32.7313828</v>
+      </c>
+      <c r="Q90">
+        <v>-31.2013828</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.8123139854896086</v>
+      </c>
+      <c r="T90">
+        <v>7.990395990645818</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0.1837</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1476509330283805</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.260877678258753</v>
+      </c>
+      <c r="C91">
+        <v>-117.7376964190259</v>
+      </c>
+      <c r="D91">
+        <v>90.30180358097412</v>
+      </c>
+      <c r="E91">
+        <v>208.7695</v>
+      </c>
+      <c r="F91">
+        <v>211.4195</v>
+      </c>
+      <c r="G91">
+        <v>3.38</v>
+      </c>
+      <c r="H91">
+        <v>234.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>7.2</v>
+      </c>
+      <c r="K91">
+        <v>1.53</v>
+      </c>
+      <c r="L91">
+        <v>5.67</v>
+      </c>
+      <c r="M91">
+        <v>38.83776215</v>
+      </c>
+      <c r="N91">
+        <v>-33.16776215</v>
+      </c>
+      <c r="O91">
+        <v>-0</v>
+      </c>
+      <c r="P91">
+        <v>-33.16776215</v>
+      </c>
+      <c r="Q91">
+        <v>-31.63776215</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.8853152568977548</v>
+      </c>
+      <c r="T91">
+        <v>8.716795626159074</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0.1837</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1459919337808706</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.262621678258753</v>
+      </c>
+      <c r="C92">
+        <v>-120.7348816475769</v>
+      </c>
+      <c r="D92">
+        <v>89.68011835242311</v>
+      </c>
+      <c r="E92">
+        <v>211.145</v>
+      </c>
+      <c r="F92">
+        <v>213.795</v>
+      </c>
+      <c r="G92">
+        <v>3.38</v>
+      </c>
+      <c r="H92">
+        <v>234.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>7.2</v>
+      </c>
+      <c r="K92">
+        <v>1.53</v>
+      </c>
+      <c r="L92">
+        <v>5.67</v>
+      </c>
+      <c r="M92">
+        <v>39.27414150000001</v>
+      </c>
+      <c r="N92">
+        <v>-33.6041415</v>
+      </c>
+      <c r="O92">
+        <v>-0</v>
+      </c>
+      <c r="P92">
+        <v>-33.6041415</v>
+      </c>
+      <c r="Q92">
+        <v>-32.0741415</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.9729167825875303</v>
+      </c>
+      <c r="T92">
+        <v>9.588475188774982</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0.1837</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1443698011833053</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2643656782587531</v>
+      </c>
+      <c r="C93">
+        <v>-123.7235653870527</v>
+      </c>
+      <c r="D93">
+        <v>89.06693461294734</v>
+      </c>
+      <c r="E93">
+        <v>213.5205</v>
+      </c>
+      <c r="F93">
+        <v>216.1705</v>
+      </c>
+      <c r="G93">
+        <v>3.38</v>
+      </c>
+      <c r="H93">
+        <v>234.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>7.2</v>
+      </c>
+      <c r="K93">
+        <v>1.53</v>
+      </c>
+      <c r="L93">
+        <v>5.67</v>
+      </c>
+      <c r="M93">
+        <v>39.71052085</v>
+      </c>
+      <c r="N93">
+        <v>-34.04052085</v>
+      </c>
+      <c r="O93">
+        <v>-0</v>
+      </c>
+      <c r="P93">
+        <v>-34.04052085</v>
+      </c>
+      <c r="Q93">
+        <v>-32.51052085</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>1.079985313986145</v>
+      </c>
+      <c r="T93">
+        <v>10.65386132086109</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0.1837</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1427833198516206</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.266109678258753</v>
+      </c>
+      <c r="C94">
+        <v>-126.7039208388339</v>
+      </c>
+      <c r="D94">
+        <v>88.46207916116614</v>
+      </c>
+      <c r="E94">
+        <v>215.896</v>
+      </c>
+      <c r="F94">
+        <v>218.546</v>
+      </c>
+      <c r="G94">
+        <v>3.38</v>
+      </c>
+      <c r="H94">
+        <v>234.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>7.2</v>
+      </c>
+      <c r="K94">
+        <v>1.53</v>
+      </c>
+      <c r="L94">
+        <v>5.67</v>
+      </c>
+      <c r="M94">
+        <v>40.1469002</v>
+      </c>
+      <c r="N94">
+        <v>-34.4769002</v>
+      </c>
+      <c r="O94">
+        <v>-0</v>
+      </c>
+      <c r="P94">
+        <v>-34.4769002</v>
+      </c>
+      <c r="Q94">
+        <v>-32.9469002</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.213820978234414</v>
+      </c>
+      <c r="T94">
+        <v>11.98559398596873</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0.1837</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1412313272445378</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2678536782587531</v>
+      </c>
+      <c r="C95">
+        <v>-129.6761165311793</v>
+      </c>
+      <c r="D95">
+        <v>87.86538346882067</v>
+      </c>
+      <c r="E95">
+        <v>218.2715</v>
+      </c>
+      <c r="F95">
+        <v>220.9215</v>
+      </c>
+      <c r="G95">
+        <v>3.38</v>
+      </c>
+      <c r="H95">
+        <v>234.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>7.2</v>
+      </c>
+      <c r="K95">
+        <v>1.53</v>
+      </c>
+      <c r="L95">
+        <v>5.67</v>
+      </c>
+      <c r="M95">
+        <v>40.58327955</v>
+      </c>
+      <c r="N95">
+        <v>-34.91327955</v>
+      </c>
+      <c r="O95">
+        <v>-0</v>
+      </c>
+      <c r="P95">
+        <v>-34.91327955</v>
+      </c>
+      <c r="Q95">
+        <v>-33.38327955</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.385895403696473</v>
+      </c>
+      <c r="T95">
+        <v>13.69782169824998</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0.1837</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1397127108225535</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.269597678258753</v>
+      </c>
+      <c r="C96">
+        <v>-132.6403164757762</v>
+      </c>
+      <c r="D96">
+        <v>87.27668352422381</v>
+      </c>
+      <c r="E96">
+        <v>220.647</v>
+      </c>
+      <c r="F96">
+        <v>223.297</v>
+      </c>
+      <c r="G96">
+        <v>3.38</v>
+      </c>
+      <c r="H96">
+        <v>234.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>7.2</v>
+      </c>
+      <c r="K96">
+        <v>1.53</v>
+      </c>
+      <c r="L96">
+        <v>5.67</v>
+      </c>
+      <c r="M96">
+        <v>41.0196589</v>
+      </c>
+      <c r="N96">
+        <v>-35.3496589</v>
+      </c>
+      <c r="O96">
+        <v>-0</v>
+      </c>
+      <c r="P96">
+        <v>-35.3496589</v>
+      </c>
+      <c r="Q96">
+        <v>-33.8196589</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.615327970979219</v>
+      </c>
+      <c r="T96">
+        <v>15.98079198129165</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0.1837</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.138226405388271</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.271341678258753</v>
+      </c>
+      <c r="C97">
+        <v>-135.5966803180385</v>
+      </c>
+      <c r="D97">
+        <v>86.69581968196148</v>
+      </c>
+      <c r="E97">
+        <v>223.0225</v>
+      </c>
+      <c r="F97">
+        <v>225.6725</v>
+      </c>
+      <c r="G97">
+        <v>3.38</v>
+      </c>
+      <c r="H97">
+        <v>234.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>7.2</v>
+      </c>
+      <c r="K97">
+        <v>1.53</v>
+      </c>
+      <c r="L97">
+        <v>5.67</v>
+      </c>
+      <c r="M97">
+        <v>41.45603825000001</v>
+      </c>
+      <c r="N97">
+        <v>-35.78603825</v>
+      </c>
+      <c r="O97">
+        <v>-0</v>
+      </c>
+      <c r="P97">
+        <v>-35.78603825</v>
+      </c>
+      <c r="Q97">
+        <v>-34.25603825</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.936533565175063</v>
+      </c>
+      <c r="T97">
+        <v>19.17695037754999</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0.1837</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1367713905947103</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.273085678258753</v>
+      </c>
+      <c r="C98">
+        <v>-138.5453634814437</v>
+      </c>
+      <c r="D98">
+        <v>86.12263651855629</v>
+      </c>
+      <c r="E98">
+        <v>225.398</v>
+      </c>
+      <c r="F98">
+        <v>228.048</v>
+      </c>
+      <c r="G98">
+        <v>3.38</v>
+      </c>
+      <c r="H98">
+        <v>234.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>7.2</v>
+      </c>
+      <c r="K98">
+        <v>1.53</v>
+      </c>
+      <c r="L98">
+        <v>5.67</v>
+      </c>
+      <c r="M98">
+        <v>41.8924176</v>
+      </c>
+      <c r="N98">
+        <v>-36.2224176</v>
+      </c>
+      <c r="O98">
+        <v>-0</v>
+      </c>
+      <c r="P98">
+        <v>-36.2224176</v>
+      </c>
+      <c r="Q98">
+        <v>-34.6924176</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.418341956468824</v>
+      </c>
+      <c r="T98">
+        <v>23.97118797193743</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0.1837</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1353466886093487</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.274829678258753</v>
+      </c>
+      <c r="C99">
+        <v>-141.4865173061812</v>
+      </c>
+      <c r="D99">
+        <v>85.55698269381885</v>
+      </c>
+      <c r="E99">
+        <v>227.7735</v>
+      </c>
+      <c r="F99">
+        <v>230.4235</v>
+      </c>
+      <c r="G99">
+        <v>3.38</v>
+      </c>
+      <c r="H99">
+        <v>234.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>7.2</v>
+      </c>
+      <c r="K99">
+        <v>1.53</v>
+      </c>
+      <c r="L99">
+        <v>5.67</v>
+      </c>
+      <c r="M99">
+        <v>42.32879695</v>
+      </c>
+      <c r="N99">
+        <v>-36.65879695</v>
+      </c>
+      <c r="O99">
+        <v>-0</v>
+      </c>
+      <c r="P99">
+        <v>-36.65879695</v>
+      </c>
+      <c r="Q99">
+        <v>-35.12879695</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>3.221355941958432</v>
+      </c>
+      <c r="T99">
+        <v>31.96158396258324</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0.1837</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1339513619226544</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.276573678258753</v>
+      </c>
+      <c r="C100">
+        <v>-144.4202891823723</v>
+      </c>
+      <c r="D100">
+        <v>84.99871081762772</v>
+      </c>
+      <c r="E100">
+        <v>230.149</v>
+      </c>
+      <c r="F100">
+        <v>232.799</v>
+      </c>
+      <c r="G100">
+        <v>3.38</v>
+      </c>
+      <c r="H100">
+        <v>234.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>7.2</v>
+      </c>
+      <c r="K100">
+        <v>1.53</v>
+      </c>
+      <c r="L100">
+        <v>5.67</v>
+      </c>
+      <c r="M100">
+        <v>42.7651763</v>
+      </c>
+      <c r="N100">
+        <v>-37.0951763</v>
+      </c>
+      <c r="O100">
+        <v>-0</v>
+      </c>
+      <c r="P100">
+        <v>-37.0951763</v>
+      </c>
+      <c r="Q100">
+        <v>-35.5651763</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.827383912937647</v>
+      </c>
+      <c r="T100">
+        <v>47.94237594387486</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0.1837</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1325845112907906</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.278317678258753</v>
+      </c>
+      <c r="C101">
+        <v>-147.3468226781092</v>
+      </c>
+      <c r="D101">
+        <v>84.44767732189084</v>
+      </c>
+      <c r="E101">
+        <v>232.5245</v>
+      </c>
+      <c r="F101">
+        <v>235.1745</v>
+      </c>
+      <c r="G101">
+        <v>3.38</v>
+      </c>
+      <c r="H101">
+        <v>234.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>7.2</v>
+      </c>
+      <c r="K101">
+        <v>1.53</v>
+      </c>
+      <c r="L101">
+        <v>5.67</v>
+      </c>
+      <c r="M101">
+        <v>43.20155565</v>
+      </c>
+      <c r="N101">
+        <v>-37.53155565</v>
+      </c>
+      <c r="O101">
+        <v>-0</v>
+      </c>
+      <c r="P101">
+        <v>-37.53155565</v>
+      </c>
+      <c r="Q101">
+        <v>-36.00155565</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>9.645467825875293</v>
+      </c>
+      <c r="T101">
+        <v>95.88475188774973</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0.1837</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.1312452738030049</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
